--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2301610.035503314</v>
+        <v>-2303360.604421951</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6661238.247473556</v>
+        <v>6661238.24747356</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>279.1418457774241</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>251.0910457346265</v>
       </c>
       <c r="E11" t="n">
-        <v>278.3383741862054</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>308.9234123546364</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>207.3370702978283</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.91180785883455</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>107.3023197792037</v>
@@ -1427,16 +1427,16 @@
         <v>147.5306706798247</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>224.1602625840785</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.9016657568162</v>
+        <v>266.1391047924126</v>
       </c>
       <c r="Y11" t="n">
-        <v>282.6459427699972</v>
+        <v>105.5260143357764</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.94118776381093</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>69.11650310225933</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>43.85306967858234</v>
+        <v>43.85306967858232</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>41.47721650732747</v>
+        <v>41.47721650732744</v>
       </c>
       <c r="G12" t="n">
-        <v>135.852164523588</v>
+        <v>32.26016863753159</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.563150089057117</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>64.45482193285208</v>
+        <v>40.38995403882642</v>
       </c>
       <c r="T12" t="n">
-        <v>90.56153510783022</v>
+        <v>90.5615351078302</v>
       </c>
       <c r="U12" t="n">
         <v>122.2512708896801</v>
       </c>
       <c r="V12" t="n">
-        <v>129.2085912633689</v>
+        <v>129.2085912633688</v>
       </c>
       <c r="W12" t="n">
         <v>148.1029872748632</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>102.180989317421</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.090699891248</v>
+        <v>133.7187178743317</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.23998429588089</v>
+        <v>76.23998429588086</v>
       </c>
       <c r="C13" t="n">
-        <v>63.65482521257142</v>
+        <v>63.6548252125714</v>
       </c>
       <c r="D13" t="n">
-        <v>45.02347713215595</v>
+        <v>45.02347713215592</v>
       </c>
       <c r="E13" t="n">
-        <v>42.84196676051276</v>
+        <v>42.84196676051273</v>
       </c>
       <c r="F13" t="n">
-        <v>41.82905213687484</v>
+        <v>41.82905213687481</v>
       </c>
       <c r="G13" t="n">
-        <v>63.14868351712484</v>
+        <v>63.14868351712482</v>
       </c>
       <c r="H13" t="n">
-        <v>47.51887338264314</v>
+        <v>47.5188733826431</v>
       </c>
       <c r="I13" t="n">
-        <v>14.25854947703827</v>
+        <v>14.25854947703822</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.48336295654442</v>
+        <v>17.48336295654438</v>
       </c>
       <c r="S13" t="n">
-        <v>98.63528383939783</v>
+        <v>98.6352838393978</v>
       </c>
       <c r="T13" t="n">
         <v>119.0114028242212</v>
@@ -1585,10 +1585,10 @@
         <v>182.6588352910557</v>
       </c>
       <c r="V13" t="n">
-        <v>148.5456474377716</v>
+        <v>148.5456474377715</v>
       </c>
       <c r="W13" t="n">
-        <v>182.9310024505346</v>
+        <v>182.9310024505345</v>
       </c>
       <c r="X13" t="n">
         <v>122.1176595029807</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279.1418457774242</v>
+        <v>279.1418457774241</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>303.284049855655</v>
       </c>
       <c r="G14" t="n">
-        <v>308.9234123546364</v>
+        <v>308.9234123546363</v>
       </c>
       <c r="H14" t="n">
-        <v>207.3370702978283</v>
+        <v>199.7027410707216</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.91180785883455</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>107.3023197792037</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>147.5306706798247</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>224.1602625840785</v>
@@ -1670,10 +1670,10 @@
         <v>245.6489728313566</v>
       </c>
       <c r="X14" t="n">
-        <v>244.405920017442</v>
+        <v>266.1391047924126</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>282.6459427699971</v>
       </c>
     </row>
     <row r="15">
@@ -1689,22 +1689,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>43.85306967858234</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>54.05308456934453</v>
+        <v>54.05308456934451</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>41.47721650732744</v>
       </c>
       <c r="G15" t="n">
         <v>135.852164523588</v>
       </c>
       <c r="H15" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S15" t="n">
-        <v>143.9819499248829</v>
+        <v>40.38995403882642</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1535309938866</v>
+        <v>183.7798729284308</v>
       </c>
       <c r="U15" t="n">
         <v>225.8432667757365</v>
       </c>
       <c r="V15" t="n">
-        <v>170.2075848555414</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>148.1029872748632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.23998429588089</v>
+        <v>76.23998429588086</v>
       </c>
       <c r="C16" t="n">
-        <v>63.65482521257142</v>
+        <v>63.6548252125714</v>
       </c>
       <c r="D16" t="n">
-        <v>45.02347713215595</v>
+        <v>45.02347713215592</v>
       </c>
       <c r="E16" t="n">
-        <v>42.84196676051276</v>
+        <v>42.84196676051273</v>
       </c>
       <c r="F16" t="n">
-        <v>41.82905213687484</v>
+        <v>41.82905213687481</v>
       </c>
       <c r="G16" t="n">
-        <v>63.14868351712484</v>
+        <v>63.14868351712482</v>
       </c>
       <c r="H16" t="n">
-        <v>47.51887338264314</v>
+        <v>47.51887338264311</v>
       </c>
       <c r="I16" t="n">
-        <v>14.25854947703827</v>
+        <v>14.25854947703823</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.48336295654442</v>
+        <v>17.48336295654438</v>
       </c>
       <c r="S16" t="n">
-        <v>98.63528383939783</v>
+        <v>98.6352838393978</v>
       </c>
       <c r="T16" t="n">
         <v>119.0114028242212</v>
@@ -1822,10 +1822,10 @@
         <v>182.6588352910557</v>
       </c>
       <c r="V16" t="n">
-        <v>148.5456474377716</v>
+        <v>148.5456474377715</v>
       </c>
       <c r="W16" t="n">
-        <v>182.9310024505346</v>
+        <v>182.9310024505345</v>
       </c>
       <c r="X16" t="n">
         <v>122.1176595029807</v>
@@ -1904,7 +1904,7 @@
         <v>144.8515660594147</v>
       </c>
       <c r="W17" t="n">
-        <v>143.7756956354061</v>
+        <v>143.7756956354042</v>
       </c>
       <c r="X17" t="n">
         <v>186.8304082677488</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1929,19 +1929,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>41.07824149166701</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.563150089057117</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S18" t="n">
-        <v>143.9819499248829</v>
+        <v>141.5851611355662</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1535309938866</v>
+        <v>11.25283858316639</v>
       </c>
       <c r="U18" t="n">
         <v>225.8432667757365</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>78.87511686341728</v>
+        <v>76.09365395650765</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>202.2272797254543</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70270629955736</v>
+        <v>222.6033987102776</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2508311771121</v>
+        <v>103.3501387663919</v>
       </c>
       <c r="V19" t="n">
         <v>69.23695091310776</v>
@@ -2081,10 +2081,10 @@
         <v>199.8331492527603</v>
       </c>
       <c r="C20" t="n">
-        <v>159.8076186890006</v>
+        <v>182.3721993602873</v>
       </c>
       <c r="D20" t="n">
-        <v>171.7823492099627</v>
+        <v>149.2177685386749</v>
       </c>
       <c r="E20" t="n">
         <v>199.0296776615415</v>
@@ -2169,16 +2169,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>135.852164523588</v>
       </c>
       <c r="H21" t="n">
-        <v>97.83211742750971</v>
+        <v>82.70136220783823</v>
       </c>
       <c r="I21" t="n">
-        <v>38.04962311002273</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T21" t="n">
-        <v>71.78608025007689</v>
+        <v>11.25283858316639</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8432667757365</v>
+        <v>42.94257436501625</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2245,22 +2245,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>126.8249530129771</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.96297327855298</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.2272797254543</v>
+        <v>19.326587314734</v>
       </c>
       <c r="T22" t="n">
-        <v>150.0815796485726</v>
+        <v>39.70270629955736</v>
       </c>
       <c r="U22" t="n">
         <v>103.3501387663919</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2403,16 +2403,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>101.6628692590321</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H24" t="n">
-        <v>97.83211742750971</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.563150089057117</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S24" t="n">
-        <v>143.9819499248829</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1535309938866</v>
+        <v>77.60003897645501</v>
       </c>
       <c r="U24" t="n">
         <v>225.8432667757365</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>44.46418470441131</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S25" t="n">
         <v>19.326587314734</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70270629955736</v>
+        <v>189.1048002095929</v>
       </c>
       <c r="U25" t="n">
         <v>103.3501387663919</v>
@@ -2536,13 +2536,13 @@
         <v>69.23695091310776</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>103.6223059258708</v>
       </c>
       <c r="X25" t="n">
         <v>42.80896297831691</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>35.68396094137455</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>303.4251451388168</v>
       </c>
       <c r="C26" t="n">
-        <v>285.9641952463437</v>
+        <v>285.9641952463438</v>
       </c>
       <c r="D26" t="n">
         <v>275.3743450960192</v>
@@ -2570,10 +2570,10 @@
         <v>333.206711716029</v>
       </c>
       <c r="H26" t="n">
-        <v>231.6203696592209</v>
+        <v>231.620369659221</v>
       </c>
       <c r="I26" t="n">
-        <v>23.70868119280453</v>
+        <v>23.70868119280452</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.19510722022713</v>
+        <v>66.19510722022714</v>
       </c>
       <c r="T26" t="n">
         <v>131.5856191405963</v>
@@ -2621,7 +2621,7 @@
         <v>290.4224041538052</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.9292421313897</v>
+        <v>306.9292421313898</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I27" t="n">
-        <v>38.04962311002273</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.563150089057117</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S27" t="n">
         <v>143.9819499248829</v>
@@ -2713,25 +2713,25 @@
         <v>100.5232836572735</v>
       </c>
       <c r="C28" t="n">
-        <v>87.93812457396402</v>
+        <v>87.93812457396403</v>
       </c>
       <c r="D28" t="n">
-        <v>69.30677649354854</v>
+        <v>69.30677649354855</v>
       </c>
       <c r="E28" t="n">
-        <v>67.12526612190536</v>
+        <v>67.12526612190537</v>
       </c>
       <c r="F28" t="n">
-        <v>66.11235149826743</v>
+        <v>66.11235149826744</v>
       </c>
       <c r="G28" t="n">
-        <v>87.43198287851743</v>
+        <v>87.43198287851745</v>
       </c>
       <c r="H28" t="n">
-        <v>71.80217274403573</v>
+        <v>71.80217274403574</v>
       </c>
       <c r="I28" t="n">
-        <v>38.54184883843086</v>
+        <v>38.54184883843087</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76666231793701</v>
+        <v>41.76666231793702</v>
       </c>
       <c r="S28" t="n">
-        <v>122.9185832007904</v>
+        <v>122.9185832007905</v>
       </c>
       <c r="T28" t="n">
         <v>143.2947021856138</v>
@@ -2776,7 +2776,7 @@
         <v>207.2143018119272</v>
       </c>
       <c r="X28" t="n">
-        <v>146.4009588643733</v>
+        <v>146.4009588643734</v>
       </c>
       <c r="Y28" t="n">
         <v>139.275956827431</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.4251451388167</v>
+        <v>303.4251451388168</v>
       </c>
       <c r="C29" t="n">
-        <v>285.9641952463437</v>
+        <v>285.9641952463438</v>
       </c>
       <c r="D29" t="n">
-        <v>275.3743450960191</v>
+        <v>275.3743450960192</v>
       </c>
       <c r="E29" t="n">
-        <v>302.6216735475979</v>
+        <v>302.621673547598</v>
       </c>
       <c r="F29" t="n">
         <v>327.5673492170476</v>
       </c>
       <c r="G29" t="n">
-        <v>333.2067117160289</v>
+        <v>333.206711716029</v>
       </c>
       <c r="H29" t="n">
-        <v>231.6203696592209</v>
+        <v>231.620369659221</v>
       </c>
       <c r="I29" t="n">
         <v>23.70868119280452</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.19510722022711</v>
+        <v>66.19510722022713</v>
       </c>
       <c r="T29" t="n">
         <v>131.5856191405963</v>
@@ -2858,7 +2858,7 @@
         <v>290.4224041538052</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.9292421313897</v>
+        <v>306.9292421313898</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I30" t="n">
-        <v>38.04962311002273</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.563150089057117</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S30" t="n">
         <v>143.9819499248829</v>
@@ -2950,25 +2950,25 @@
         <v>100.5232836572735</v>
       </c>
       <c r="C31" t="n">
-        <v>87.938124573964</v>
+        <v>87.93812457396403</v>
       </c>
       <c r="D31" t="n">
-        <v>69.30677649354853</v>
+        <v>69.30677649354855</v>
       </c>
       <c r="E31" t="n">
-        <v>67.12526612190534</v>
+        <v>67.12526612190537</v>
       </c>
       <c r="F31" t="n">
-        <v>66.11235149826742</v>
+        <v>66.11235149826744</v>
       </c>
       <c r="G31" t="n">
-        <v>87.43198287851742</v>
+        <v>87.43198287851745</v>
       </c>
       <c r="H31" t="n">
-        <v>71.8021727440357</v>
+        <v>71.80217274403574</v>
       </c>
       <c r="I31" t="n">
-        <v>38.54184883843085</v>
+        <v>38.54184883843087</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76666231793699</v>
+        <v>41.76666231793702</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9185832007904</v>
+        <v>122.9185832007905</v>
       </c>
       <c r="T31" t="n">
-        <v>143.2947021856137</v>
+        <v>143.2947021856138</v>
       </c>
       <c r="U31" t="n">
         <v>206.9421346524483</v>
@@ -3013,10 +3013,10 @@
         <v>207.2143018119272</v>
       </c>
       <c r="X31" t="n">
-        <v>146.4009588643733</v>
+        <v>146.4009588643734</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.2759568274309</v>
+        <v>139.275956827431</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.4251451388167</v>
+        <v>303.4251451388168</v>
       </c>
       <c r="C32" t="n">
-        <v>285.9641952463436</v>
+        <v>285.9641952463438</v>
       </c>
       <c r="D32" t="n">
-        <v>275.3743450960191</v>
+        <v>275.3743450960192</v>
       </c>
       <c r="E32" t="n">
-        <v>302.6216735475979</v>
+        <v>302.621673547598</v>
       </c>
       <c r="F32" t="n">
-        <v>327.5673492170475</v>
+        <v>327.5673492170476</v>
       </c>
       <c r="G32" t="n">
-        <v>333.2067117160288</v>
+        <v>333.206711716029</v>
       </c>
       <c r="H32" t="n">
-        <v>231.6203696592208</v>
+        <v>231.620369659221</v>
       </c>
       <c r="I32" t="n">
-        <v>23.70868119280443</v>
+        <v>23.70868119280453</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.19510722022703</v>
+        <v>66.19510722022716</v>
       </c>
       <c r="T32" t="n">
-        <v>131.5856191405962</v>
+        <v>131.5856191405963</v>
       </c>
       <c r="U32" t="n">
-        <v>171.8139700412172</v>
+        <v>171.8139700412173</v>
       </c>
       <c r="V32" t="n">
-        <v>248.443561945471</v>
+        <v>248.4435619454711</v>
       </c>
       <c r="W32" t="n">
-        <v>269.9322721927491</v>
+        <v>269.9322721927492</v>
       </c>
       <c r="X32" t="n">
-        <v>290.4224041538051</v>
+        <v>290.4224041538052</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.9292421313897</v>
+        <v>306.9292421313898</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I33" t="n">
-        <v>38.04962311002273</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.563150089057117</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S33" t="n">
         <v>143.9819499248829</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.5232836572734</v>
+        <v>100.5232836572735</v>
       </c>
       <c r="C34" t="n">
-        <v>87.93812457396392</v>
+        <v>87.93812457396405</v>
       </c>
       <c r="D34" t="n">
-        <v>69.30677649354844</v>
+        <v>69.30677649354857</v>
       </c>
       <c r="E34" t="n">
-        <v>67.12526612190526</v>
+        <v>67.12526612190538</v>
       </c>
       <c r="F34" t="n">
-        <v>66.11235149826733</v>
+        <v>66.11235149826746</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43198287851733</v>
+        <v>87.43198287851746</v>
       </c>
       <c r="H34" t="n">
-        <v>71.80217274403563</v>
+        <v>71.80217274403574</v>
       </c>
       <c r="I34" t="n">
-        <v>38.54184883843076</v>
+        <v>38.54184883843088</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76666231793691</v>
+        <v>41.76666231793703</v>
       </c>
       <c r="S34" t="n">
-        <v>122.9185832007903</v>
+        <v>122.9185832007905</v>
       </c>
       <c r="T34" t="n">
-        <v>143.2947021856137</v>
+        <v>143.2947021856138</v>
       </c>
       <c r="U34" t="n">
-        <v>206.9421346524482</v>
+        <v>206.9421346524483</v>
       </c>
       <c r="V34" t="n">
-        <v>172.8289467991641</v>
+        <v>172.8289467991642</v>
       </c>
       <c r="W34" t="n">
-        <v>207.2143018119271</v>
+        <v>207.2143018119272</v>
       </c>
       <c r="X34" t="n">
-        <v>146.4009588643733</v>
+        <v>146.4009588643734</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.2759568274309</v>
+        <v>139.275956827431</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I36" t="n">
-        <v>38.04962311002273</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.563150089057117</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S36" t="n">
         <v>143.9819499248829</v>
@@ -3427,16 +3427,16 @@
         <v>14.83975810943426</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>14.33361641398767</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.82021673626066</v>
+        <v>68.24436779409142</v>
       </c>
       <c r="T37" t="n">
-        <v>70.19633572108403</v>
+        <v>222.6033987102776</v>
       </c>
       <c r="U37" t="n">
         <v>133.8437681879185</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>99.73058033463442</v>
       </c>
       <c r="W37" t="n">
         <v>134.1159353473974</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>73.30259239984358</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.40731642545049</v>
+        <v>66.17759036290121</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I39" t="n">
-        <v>38.04962311002273</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.563150089057117</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S39" t="n">
         <v>143.9819499248829</v>
@@ -3661,7 +3661,7 @@
         <v>27.42491719274372</v>
       </c>
       <c r="C40" t="n">
-        <v>26.27789420100248</v>
+        <v>14.83975810943426</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S40" t="n">
-        <v>202.2272797254543</v>
+        <v>49.82021673626066</v>
       </c>
       <c r="T40" t="n">
         <v>70.19633572108403</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2508311771121</v>
+        <v>176.61360842608</v>
       </c>
       <c r="V40" t="n">
-        <v>99.73058033463442</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3837,7 +3837,7 @@
         <v>97.83211742750971</v>
       </c>
       <c r="I42" t="n">
-        <v>38.04962311002273</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.563150089057117</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S42" t="n">
         <v>143.9819499248829</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034786</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3901,13 +3901,13 @@
         <v>14.83975810943426</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>14.33361641398767</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.475162813015581</v>
       </c>
       <c r="S43" t="n">
         <v>202.2272797254543</v>
@@ -3955,16 +3955,16 @@
         <v>133.8437681879185</v>
       </c>
       <c r="V43" t="n">
-        <v>99.73058033463442</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>134.1159353473974</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>73.30259239984358</v>
       </c>
       <c r="Y43" t="n">
-        <v>88.39333139171285</v>
+        <v>66.17759036290121</v>
       </c>
     </row>
     <row r="44">
@@ -4071,10 +4071,10 @@
         <v>135.852164523588</v>
       </c>
       <c r="H45" t="n">
-        <v>97.83211742750971</v>
+        <v>97.83211742751082</v>
       </c>
       <c r="I45" t="n">
-        <v>38.04962311002273</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.563150089057117</v>
+        <v>7.563150089057103</v>
       </c>
       <c r="S45" t="n">
         <v>143.9819499248829</v>
@@ -4135,7 +4135,7 @@
         <v>27.42491719274372</v>
       </c>
       <c r="C46" t="n">
-        <v>33.26390916726485</v>
+        <v>14.83975810943426</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>14.33361641398767</v>
+        <v>166.7406794031812</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.1108692686995</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>70.19633572108403</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2508311771121</v>
+        <v>153.5641129662435</v>
       </c>
       <c r="V46" t="n">
         <v>99.73058033463442</v>
@@ -4198,7 +4198,7 @@
         <v>134.1159353473974</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>73.30259239984358</v>
       </c>
       <c r="Y46" t="n">
         <v>66.17759036290121</v>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>831.0912234338937</v>
+        <v>282.0934344399103</v>
       </c>
       <c r="C11" t="n">
-        <v>831.0912234338937</v>
+        <v>282.0934344399103</v>
       </c>
       <c r="D11" t="n">
-        <v>831.0912234338937</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="E11" t="n">
-        <v>549.9413505185347</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="F11" t="n">
-        <v>549.9413505185347</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="G11" t="n">
-        <v>237.8974996552656</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="H11" t="n">
-        <v>28.46611551604507</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="I11" t="n">
-        <v>28.46611551604507</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="J11" t="n">
-        <v>83.43604716125765</v>
+        <v>83.43604716125753</v>
       </c>
       <c r="K11" t="n">
-        <v>216.5602434586312</v>
+        <v>216.5602434586309</v>
       </c>
       <c r="L11" t="n">
-        <v>418.6143424701349</v>
+        <v>418.6143424701345</v>
       </c>
       <c r="M11" t="n">
         <v>675.1078967214453</v>
       </c>
       <c r="N11" t="n">
-        <v>940.3655932151302</v>
+        <v>940.3655932151306</v>
       </c>
       <c r="O11" t="n">
         <v>1177.505652943962</v>
@@ -5060,31 +5060,31 @@
         <v>1345.39820663438</v>
       </c>
       <c r="Q11" t="n">
-        <v>1423.305775802253</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="R11" t="n">
-        <v>1423.305775802253</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="S11" t="n">
-        <v>1380.970616348885</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="T11" t="n">
-        <v>1272.58443475373</v>
+        <v>1314.919594207099</v>
       </c>
       <c r="U11" t="n">
-        <v>1123.56355527916</v>
+        <v>1165.898714732529</v>
       </c>
       <c r="V11" t="n">
-        <v>1123.56355527916</v>
+        <v>939.4742070718432</v>
       </c>
       <c r="W11" t="n">
-        <v>1123.56355527916</v>
+        <v>939.4742070718432</v>
       </c>
       <c r="X11" t="n">
-        <v>1116.59217572682</v>
+        <v>670.6468284936486</v>
       </c>
       <c r="Y11" t="n">
-        <v>831.0912234338937</v>
+        <v>564.0548948211468</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>480.934836998023</v>
+        <v>480.9348369980229</v>
       </c>
       <c r="C12" t="n">
-        <v>411.1201873997812</v>
+        <v>306.4818077168959</v>
       </c>
       <c r="D12" t="n">
-        <v>366.8241574214152</v>
+        <v>262.1857777385299</v>
       </c>
       <c r="E12" t="n">
-        <v>207.5867024159597</v>
+        <v>102.9483227330744</v>
       </c>
       <c r="F12" t="n">
-        <v>165.69052412573</v>
+        <v>61.05214444284468</v>
       </c>
       <c r="G12" t="n">
-        <v>28.46611551604507</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="H12" t="n">
-        <v>28.46611551604507</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="I12" t="n">
-        <v>28.46611551604507</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="J12" t="n">
-        <v>42.38798326520927</v>
+        <v>167.2181082522141</v>
       </c>
       <c r="K12" t="n">
-        <v>144.3374974159255</v>
+        <v>269.1676224029304</v>
       </c>
       <c r="L12" t="n">
-        <v>327.7437416982006</v>
+        <v>452.5738666852056</v>
       </c>
       <c r="M12" t="n">
-        <v>561.127046234209</v>
+        <v>760.0400706369742</v>
       </c>
       <c r="N12" t="n">
-        <v>815.0959573033367</v>
+        <v>1014.008981706102</v>
       </c>
       <c r="O12" t="n">
-        <v>1025.208098878738</v>
+        <v>1224.121123281503</v>
       </c>
       <c r="P12" t="n">
         <v>1373.421574466097</v>
       </c>
       <c r="Q12" t="n">
-        <v>1423.305775802253</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="R12" t="n">
-        <v>1415.666230257751</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="S12" t="n">
-        <v>1350.560349517497</v>
+        <v>1382.507842429702</v>
       </c>
       <c r="T12" t="n">
-        <v>1259.084051428779</v>
+        <v>1291.031544340985</v>
       </c>
       <c r="U12" t="n">
-        <v>1135.597919216981</v>
+        <v>1167.545412129187</v>
       </c>
       <c r="V12" t="n">
-        <v>1005.084190668124</v>
+        <v>1037.031683580329</v>
       </c>
       <c r="W12" t="n">
-        <v>855.4852136228072</v>
+        <v>887.4327065350128</v>
       </c>
       <c r="X12" t="n">
-        <v>647.6337134172744</v>
+        <v>784.2195860123653</v>
       </c>
       <c r="Y12" t="n">
-        <v>544.5117943352058</v>
+        <v>649.1501740180909</v>
       </c>
     </row>
     <row r="13">
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.9564464442478</v>
+        <v>349.9564464442487</v>
       </c>
       <c r="C13" t="n">
-        <v>285.658643199226</v>
+        <v>285.6586431992271</v>
       </c>
       <c r="D13" t="n">
-        <v>240.1803834697756</v>
+        <v>240.1803834697767</v>
       </c>
       <c r="E13" t="n">
-        <v>196.9056695702679</v>
+        <v>196.9056695702689</v>
       </c>
       <c r="F13" t="n">
-        <v>154.6541017552429</v>
+        <v>154.6541017552438</v>
       </c>
       <c r="G13" t="n">
-        <v>90.86755274804614</v>
+        <v>90.86755274804659</v>
       </c>
       <c r="H13" t="n">
-        <v>42.86869074537666</v>
+        <v>42.86869074537661</v>
       </c>
       <c r="I13" t="n">
-        <v>28.46611551604507</v>
+        <v>28.46611551604508</v>
       </c>
       <c r="J13" t="n">
-        <v>28.46611551604507</v>
+        <v>126.1088478974735</v>
       </c>
       <c r="K13" t="n">
-        <v>175.8708371231714</v>
+        <v>247.8715518458685</v>
       </c>
       <c r="L13" t="n">
-        <v>387.2116113483597</v>
+        <v>459.2123260710568</v>
       </c>
       <c r="M13" t="n">
-        <v>620.4299487002324</v>
+        <v>722.9860246274286</v>
       </c>
       <c r="N13" t="n">
-        <v>853.5374916803455</v>
+        <v>956.0935676075417</v>
       </c>
       <c r="O13" t="n">
-        <v>1155.389817584333</v>
+        <v>1257.945893511529</v>
       </c>
       <c r="P13" t="n">
-        <v>1302.401506701685</v>
+        <v>1404.957582628881</v>
       </c>
       <c r="Q13" t="n">
-        <v>1423.305775802253</v>
+        <v>1423.305775802254</v>
       </c>
       <c r="R13" t="n">
-        <v>1405.645813219885</v>
+        <v>1405.645813219886</v>
       </c>
       <c r="S13" t="n">
         <v>1306.01421338211</v>
@@ -5230,19 +5230,19 @@
         <v>1185.800675175826</v>
       </c>
       <c r="U13" t="n">
-        <v>1001.296801144456</v>
+        <v>1001.296801144457</v>
       </c>
       <c r="V13" t="n">
-        <v>851.2506926214544</v>
+        <v>851.2506926214553</v>
       </c>
       <c r="W13" t="n">
-        <v>666.4719022673791</v>
+        <v>666.47190226738</v>
       </c>
       <c r="X13" t="n">
-        <v>543.120731052247</v>
+        <v>543.1207310522479</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.9665315916022</v>
+        <v>426.9665315916031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>871.3116558427985</v>
+        <v>863.6002121790541</v>
       </c>
       <c r="C14" t="n">
-        <v>871.3116558427985</v>
+        <v>863.6002121790541</v>
       </c>
       <c r="D14" t="n">
-        <v>871.3116558427985</v>
+        <v>863.6002121790541</v>
       </c>
       <c r="E14" t="n">
-        <v>871.3116558427985</v>
+        <v>863.6002121790541</v>
       </c>
       <c r="F14" t="n">
-        <v>564.9641307360762</v>
+        <v>557.2526870723319</v>
       </c>
       <c r="G14" t="n">
-        <v>252.9202798728071</v>
+        <v>245.2088362090629</v>
       </c>
       <c r="H14" t="n">
-        <v>43.48889573358656</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I14" t="n">
-        <v>43.48889573358656</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J14" t="n">
-        <v>214.9593119742626</v>
+        <v>265.8644763991521</v>
       </c>
       <c r="K14" t="n">
-        <v>348.0835082716357</v>
+        <v>438.9266924926297</v>
       </c>
       <c r="L14" t="n">
-        <v>550.1376072831392</v>
+        <v>640.9807915041333</v>
       </c>
       <c r="M14" t="n">
-        <v>806.63116153445</v>
+        <v>897.4743457554442</v>
       </c>
       <c r="N14" t="n">
-        <v>1071.888858028135</v>
+        <v>1162.732042249129</v>
       </c>
       <c r="O14" t="n">
-        <v>1610.063942731269</v>
+        <v>1399.872101977961</v>
       </c>
       <c r="P14" t="n">
-        <v>2096.537217511454</v>
+        <v>1886.345376758147</v>
       </c>
       <c r="Q14" t="n">
-        <v>2174.444786679328</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R14" t="n">
-        <v>2174.444786679328</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="S14" t="n">
-        <v>2132.10962722596</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="T14" t="n">
-        <v>2023.723445630804</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="U14" t="n">
-        <v>1874.702566156234</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="V14" t="n">
-        <v>1648.278058495549</v>
+        <v>1948.020279018641</v>
       </c>
       <c r="W14" t="n">
-        <v>1400.14778290832</v>
+        <v>1699.890003431412</v>
       </c>
       <c r="X14" t="n">
-        <v>1153.273116224035</v>
+        <v>1431.062624853217</v>
       </c>
       <c r="Y14" t="n">
-        <v>1153.273116224035</v>
+        <v>1145.561672560291</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>699.416317532298</v>
+        <v>639.0299596358464</v>
       </c>
       <c r="C15" t="n">
-        <v>524.963288251171</v>
+        <v>464.5769303547193</v>
       </c>
       <c r="D15" t="n">
-        <v>480.6672582728049</v>
+        <v>315.642520693468</v>
       </c>
       <c r="E15" t="n">
-        <v>426.0681829502347</v>
+        <v>261.0434453708978</v>
       </c>
       <c r="F15" t="n">
-        <v>279.5336249771196</v>
+        <v>219.1472670806681</v>
       </c>
       <c r="G15" t="n">
-        <v>142.3092163674348</v>
+        <v>81.92285847098321</v>
       </c>
       <c r="H15" t="n">
-        <v>43.48889573358656</v>
+        <v>81.92285847098321</v>
       </c>
       <c r="I15" t="n">
-        <v>43.48889573358656</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J15" t="n">
-        <v>57.41076348275077</v>
+        <v>182.2408884697555</v>
       </c>
       <c r="K15" t="n">
-        <v>159.360277633467</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L15" t="n">
-        <v>342.7665219157421</v>
+        <v>1069.819262119547</v>
       </c>
       <c r="M15" t="n">
-        <v>880.9416066188758</v>
+        <v>1303.202566655556</v>
       </c>
       <c r="N15" t="n">
-        <v>1419.11669132201</v>
+        <v>1557.171477724683</v>
       </c>
       <c r="O15" t="n">
-        <v>1767.283619300086</v>
+        <v>1767.283619300084</v>
       </c>
       <c r="P15" t="n">
-        <v>1916.584070484681</v>
+        <v>1916.584070484679</v>
       </c>
       <c r="Q15" t="n">
-        <v>2174.444786679328</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R15" t="n">
-        <v>2174.444786679328</v>
+        <v>2166.805241134824</v>
       </c>
       <c r="S15" t="n">
-        <v>2029.008473623891</v>
+        <v>2126.007307762272</v>
       </c>
       <c r="T15" t="n">
-        <v>1832.893795852288</v>
+        <v>1940.371072481029</v>
       </c>
       <c r="U15" t="n">
-        <v>1604.769283957605</v>
+        <v>1712.246560586345</v>
       </c>
       <c r="V15" t="n">
-        <v>1432.842430568169</v>
+        <v>1477.094452354603</v>
       </c>
       <c r="W15" t="n">
-        <v>1283.243453522853</v>
+        <v>1222.857095626401</v>
       </c>
       <c r="X15" t="n">
-        <v>1075.39195331732</v>
+        <v>1015.005595420868</v>
       </c>
       <c r="Y15" t="n">
-        <v>867.6316545523659</v>
+        <v>807.2452966559144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364.9792266617899</v>
+        <v>364.9792266617896</v>
       </c>
       <c r="C16" t="n">
-        <v>300.6814234167682</v>
+        <v>300.681423416768</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2031636873177</v>
+        <v>255.2031636873175</v>
       </c>
       <c r="E16" t="n">
-        <v>211.9284497878099</v>
+        <v>211.9284497878097</v>
       </c>
       <c r="F16" t="n">
-        <v>169.6768819727848</v>
+        <v>169.6768819727847</v>
       </c>
       <c r="G16" t="n">
-        <v>105.890332965588</v>
+        <v>105.8903329655879</v>
       </c>
       <c r="H16" t="n">
-        <v>57.89147096291814</v>
+        <v>57.89147096291807</v>
       </c>
       <c r="I16" t="n">
-        <v>43.48889573358656</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J16" t="n">
-        <v>43.48889573358656</v>
+        <v>141.131628115015</v>
       </c>
       <c r="K16" t="n">
-        <v>165.2515996819814</v>
+        <v>262.8943320634099</v>
       </c>
       <c r="L16" t="n">
-        <v>479.1484498343656</v>
+        <v>474.2351062885982</v>
       </c>
       <c r="M16" t="n">
-        <v>712.3667871862383</v>
+        <v>810.0095195676669</v>
       </c>
       <c r="N16" t="n">
-        <v>971.116347825083</v>
+        <v>1043.11706254778</v>
       </c>
       <c r="O16" t="n">
-        <v>1170.412597801875</v>
+        <v>1242.413312524571</v>
       </c>
       <c r="P16" t="n">
-        <v>1317.424286919227</v>
+        <v>1419.980362846422</v>
       </c>
       <c r="Q16" t="n">
         <v>1438.328556019795</v>
@@ -5461,25 +5461,25 @@
         <v>1420.668593437427</v>
       </c>
       <c r="S16" t="n">
-        <v>1321.036993599652</v>
+        <v>1321.036993599651</v>
       </c>
       <c r="T16" t="n">
-        <v>1200.823455393368</v>
+        <v>1200.823455393367</v>
       </c>
       <c r="U16" t="n">
         <v>1016.319581361998</v>
       </c>
       <c r="V16" t="n">
-        <v>866.2734728389966</v>
+        <v>866.2734728389962</v>
       </c>
       <c r="W16" t="n">
-        <v>681.4946824849212</v>
+        <v>681.4946824849209</v>
       </c>
       <c r="X16" t="n">
-        <v>558.1435112697891</v>
+        <v>558.1435112697889</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9893118091443</v>
+        <v>441.989311809144</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1189.754218123404</v>
+        <v>1189.754218123405</v>
       </c>
       <c r="C17" t="n">
         <v>1005.539875335235</v>
       </c>
       <c r="D17" t="n">
-        <v>832.0223508807276</v>
+        <v>832.0223508807277</v>
       </c>
       <c r="E17" t="n">
-        <v>630.982272434726</v>
+        <v>630.9822724347262</v>
       </c>
       <c r="F17" t="n">
         <v>404.7445417973613</v>
@@ -5507,49 +5507,49 @@
         <v>172.8104854034497</v>
       </c>
       <c r="H17" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I17" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J17" t="n">
-        <v>98.45882737879901</v>
+        <v>265.8644763991521</v>
       </c>
       <c r="K17" t="n">
-        <v>231.5830236761721</v>
+        <v>719.8926311419783</v>
       </c>
       <c r="L17" t="n">
-        <v>433.6371226876756</v>
+        <v>921.9467301534819</v>
       </c>
       <c r="M17" t="n">
-        <v>971.812207390809</v>
+        <v>1178.440284404793</v>
       </c>
       <c r="N17" t="n">
-        <v>1509.987292093942</v>
+        <v>1443.697980898478</v>
       </c>
       <c r="O17" t="n">
-        <v>1747.127351822774</v>
+        <v>1680.83804062731</v>
       </c>
       <c r="P17" t="n">
-        <v>1915.019905513192</v>
+        <v>1886.345376758147</v>
       </c>
       <c r="Q17" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R17" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="S17" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="T17" t="n">
-        <v>2146.16839955353</v>
+        <v>2146.168399553528</v>
       </c>
       <c r="U17" t="n">
-        <v>2077.257314548317</v>
+        <v>2077.257314548315</v>
       </c>
       <c r="V17" t="n">
-        <v>1930.942601356989</v>
+        <v>1930.942601356987</v>
       </c>
       <c r="W17" t="n">
         <v>1785.71462596769</v>
@@ -5558,7 +5558,7 @@
         <v>1596.997041858853</v>
       </c>
       <c r="Y17" t="n">
-        <v>1391.605884035283</v>
+        <v>1391.605884035284</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>692.1284744826708</v>
+        <v>711.082310391932</v>
       </c>
       <c r="C18" t="n">
-        <v>517.6754452015438</v>
+        <v>536.629281110805</v>
       </c>
       <c r="D18" t="n">
-        <v>368.7410355402925</v>
+        <v>387.6948714495537</v>
       </c>
       <c r="E18" t="n">
-        <v>327.2478623163864</v>
+        <v>228.4574164440982</v>
       </c>
       <c r="F18" t="n">
-        <v>180.7133043432714</v>
+        <v>81.92285847098321</v>
       </c>
       <c r="G18" t="n">
-        <v>43.48889573358655</v>
+        <v>81.92285847098321</v>
       </c>
       <c r="H18" t="n">
-        <v>43.48889573358655</v>
+        <v>81.92285847098321</v>
       </c>
       <c r="I18" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J18" t="n">
         <v>182.2408884697555</v>
@@ -5598,46 +5598,46 @@
         <v>546.0109872629246</v>
       </c>
       <c r="L18" t="n">
-        <v>729.4172315451997</v>
+        <v>1069.819262119547</v>
       </c>
       <c r="M18" t="n">
-        <v>1018.996393021551</v>
+        <v>1303.202566655556</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.171477724684</v>
+        <v>1557.171477724683</v>
       </c>
       <c r="O18" t="n">
-        <v>1767.283619300085</v>
+        <v>1767.283619300084</v>
       </c>
       <c r="P18" t="n">
-        <v>1916.58407048468</v>
+        <v>1916.584070484679</v>
       </c>
       <c r="Q18" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R18" t="n">
-        <v>2166.805241134825</v>
+        <v>2166.805241134824</v>
       </c>
       <c r="S18" t="n">
-        <v>2021.368928079388</v>
+        <v>2023.789926856474</v>
       </c>
       <c r="T18" t="n">
-        <v>1825.254250307785</v>
+        <v>2012.423423237114</v>
       </c>
       <c r="U18" t="n">
-        <v>1597.129738413102</v>
+        <v>1784.298911342431</v>
       </c>
       <c r="V18" t="n">
-        <v>1361.977630181359</v>
+        <v>1549.146803110688</v>
       </c>
       <c r="W18" t="n">
-        <v>1107.740273453157</v>
+        <v>1294.909446382487</v>
       </c>
       <c r="X18" t="n">
-        <v>899.8887732476246</v>
+        <v>1087.057946176954</v>
       </c>
       <c r="Y18" t="n">
-        <v>692.1284744826708</v>
+        <v>879.2976474120001</v>
       </c>
     </row>
     <row r="19">
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>420.1673178594057</v>
+        <v>420.1673178594058</v>
       </c>
       <c r="C19" t="n">
-        <v>420.1673178594057</v>
+        <v>420.1673178594058</v>
       </c>
       <c r="D19" t="n">
-        <v>270.0506784470699</v>
+        <v>420.1673178594058</v>
       </c>
       <c r="E19" t="n">
-        <v>270.0506784470699</v>
+        <v>272.2542242770127</v>
       </c>
       <c r="F19" t="n">
-        <v>123.1607309491596</v>
+        <v>125.3642767791023</v>
       </c>
       <c r="G19" t="n">
-        <v>123.1607309491596</v>
+        <v>125.3642767791023</v>
       </c>
       <c r="H19" t="n">
-        <v>43.48889573358655</v>
+        <v>48.5020000553572</v>
       </c>
       <c r="I19" t="n">
-        <v>43.48889573358655</v>
+        <v>48.5020000553572</v>
       </c>
       <c r="J19" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="K19" t="n">
         <v>165.2515996819814</v>
       </c>
       <c r="L19" t="n">
-        <v>376.5923739071697</v>
+        <v>376.5923739071698</v>
       </c>
       <c r="M19" t="n">
-        <v>609.8107112590425</v>
+        <v>609.8107112590426</v>
       </c>
       <c r="N19" t="n">
-        <v>842.9182542391554</v>
+        <v>842.9182542391557</v>
       </c>
       <c r="O19" t="n">
         <v>1042.214504215947</v>
       </c>
       <c r="P19" t="n">
-        <v>1189.226193333299</v>
+        <v>1189.2261933333</v>
       </c>
       <c r="Q19" t="n">
         <v>1207.574386506672</v>
@@ -5701,22 +5701,22 @@
         <v>1003.304406986011</v>
       </c>
       <c r="T19" t="n">
-        <v>963.2006632490845</v>
+        <v>778.4524890968421</v>
       </c>
       <c r="U19" t="n">
-        <v>674.0584095348299</v>
+        <v>674.05840953483</v>
       </c>
       <c r="V19" t="n">
-        <v>604.1220954811857</v>
+        <v>604.1220954811859</v>
       </c>
       <c r="W19" t="n">
-        <v>499.4530995964678</v>
+        <v>499.4530995964679</v>
       </c>
       <c r="X19" t="n">
-        <v>456.2117228506931</v>
+        <v>456.2117228506932</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.1673178594057</v>
+        <v>420.1673178594058</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.961712394832</v>
+        <v>1166.961712394831</v>
       </c>
       <c r="C20" t="n">
-        <v>1005.539875335235</v>
+        <v>982.747369606662</v>
       </c>
       <c r="D20" t="n">
         <v>832.0223508807277</v>
@@ -5744,58 +5744,58 @@
         <v>172.8104854034497</v>
       </c>
       <c r="H20" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I20" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J20" t="n">
-        <v>98.45882737879901</v>
+        <v>265.8644763991521</v>
       </c>
       <c r="K20" t="n">
-        <v>552.4869821216253</v>
+        <v>641.6959793128095</v>
       </c>
       <c r="L20" t="n">
-        <v>1090.662066824759</v>
+        <v>843.7500783243131</v>
       </c>
       <c r="M20" t="n">
-        <v>1347.15562107607</v>
+        <v>1100.243632575624</v>
       </c>
       <c r="N20" t="n">
-        <v>1666.536354043612</v>
+        <v>1365.501329069309</v>
       </c>
       <c r="O20" t="n">
-        <v>1903.676413772443</v>
+        <v>1903.676413772442</v>
       </c>
       <c r="P20" t="n">
-        <v>2071.568967462861</v>
+        <v>2071.56896746286</v>
       </c>
       <c r="Q20" t="n">
-        <v>2149.476536630735</v>
+        <v>2149.476536630734</v>
       </c>
       <c r="R20" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="S20" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="T20" t="n">
         <v>2146.168399553529</v>
       </c>
       <c r="U20" t="n">
-        <v>2077.257314548317</v>
+        <v>2077.257314548316</v>
       </c>
       <c r="V20" t="n">
-        <v>1930.942601356989</v>
+        <v>1930.942601356988</v>
       </c>
       <c r="W20" t="n">
-        <v>1762.922120239117</v>
+        <v>1762.922120239116</v>
       </c>
       <c r="X20" t="n">
-        <v>1574.20453613028</v>
+        <v>1574.204536130279</v>
       </c>
       <c r="Y20" t="n">
-        <v>1368.813378306711</v>
+        <v>1368.81337830671</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>800.59248166235</v>
+        <v>893.4094857670871</v>
       </c>
       <c r="C21" t="n">
-        <v>626.139452381223</v>
+        <v>718.9564564859601</v>
       </c>
       <c r="D21" t="n">
-        <v>477.2050427199718</v>
+        <v>570.0220468247088</v>
       </c>
       <c r="E21" t="n">
-        <v>317.9675877145163</v>
+        <v>410.7845918192533</v>
       </c>
       <c r="F21" t="n">
-        <v>317.9675877145163</v>
+        <v>264.2500338461383</v>
       </c>
       <c r="G21" t="n">
-        <v>180.7431791048314</v>
+        <v>127.0256252364534</v>
       </c>
       <c r="H21" t="n">
-        <v>81.92285847098324</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I21" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J21" t="n">
         <v>182.2408884697555</v>
       </c>
       <c r="K21" t="n">
-        <v>284.1904026204717</v>
+        <v>546.0109872629246</v>
       </c>
       <c r="L21" t="n">
-        <v>665.5266602163006</v>
+        <v>754.5411211660094</v>
       </c>
       <c r="M21" t="n">
-        <v>898.9099647523091</v>
+        <v>987.924425702018</v>
       </c>
       <c r="N21" t="n">
-        <v>1437.085049455442</v>
+        <v>1241.893336771146</v>
       </c>
       <c r="O21" t="n">
-        <v>1975.260134158576</v>
+        <v>1452.005478346547</v>
       </c>
       <c r="P21" t="n">
-        <v>2124.56058534317</v>
+        <v>1916.584070484679</v>
       </c>
       <c r="Q21" t="n">
-        <v>2174.444786679327</v>
+        <v>2174.444786679326</v>
       </c>
       <c r="R21" t="n">
-        <v>2174.444786679327</v>
+        <v>2166.805241134824</v>
       </c>
       <c r="S21" t="n">
-        <v>2174.444786679327</v>
+        <v>2021.368928079387</v>
       </c>
       <c r="T21" t="n">
-        <v>2101.933594507532</v>
+        <v>2010.002424460027</v>
       </c>
       <c r="U21" t="n">
-        <v>1873.809082612849</v>
+        <v>1966.626086717586</v>
       </c>
       <c r="V21" t="n">
-        <v>1638.656974381106</v>
+        <v>1731.473978485843</v>
       </c>
       <c r="W21" t="n">
-        <v>1384.419617652905</v>
+        <v>1477.236621757642</v>
       </c>
       <c r="X21" t="n">
-        <v>1176.568117447372</v>
+        <v>1269.385121552109</v>
       </c>
       <c r="Y21" t="n">
-        <v>968.807818682418</v>
+        <v>1061.624822787155</v>
       </c>
     </row>
     <row r="22">
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493.4216805479964</v>
+        <v>789.6636661638912</v>
       </c>
       <c r="C22" t="n">
-        <v>493.4216805479964</v>
+        <v>789.6636661638912</v>
       </c>
       <c r="D22" t="n">
-        <v>343.3050411356607</v>
+        <v>639.5470267515554</v>
       </c>
       <c r="E22" t="n">
-        <v>195.3919475532676</v>
+        <v>511.4410136071341</v>
       </c>
       <c r="F22" t="n">
-        <v>48.50200005535723</v>
+        <v>364.5510661092237</v>
       </c>
       <c r="G22" t="n">
-        <v>48.50200005535723</v>
+        <v>196.1261374191416</v>
       </c>
       <c r="H22" t="n">
-        <v>48.50200005535723</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="I22" t="n">
-        <v>48.50200005535723</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="J22" t="n">
-        <v>43.48889573358655</v>
+        <v>43.48889573358652</v>
       </c>
       <c r="K22" t="n">
         <v>165.2515996819814</v>
       </c>
       <c r="L22" t="n">
-        <v>376.5923739071697</v>
+        <v>376.5923739071698</v>
       </c>
       <c r="M22" t="n">
-        <v>609.8107112590425</v>
+        <v>609.8107112590426</v>
       </c>
       <c r="N22" t="n">
-        <v>842.9182542391554</v>
+        <v>842.9182542391557</v>
       </c>
       <c r="O22" t="n">
         <v>1042.214504215947</v>
       </c>
       <c r="P22" t="n">
-        <v>1189.226193333299</v>
+        <v>1189.2261933333</v>
       </c>
       <c r="Q22" t="n">
         <v>1207.574386506672</v>
@@ -5935,25 +5935,25 @@
         <v>1207.574386506672</v>
       </c>
       <c r="S22" t="n">
-        <v>1003.304406986011</v>
+        <v>1188.052581138254</v>
       </c>
       <c r="T22" t="n">
-        <v>851.7068517854327</v>
+        <v>1147.948837401327</v>
       </c>
       <c r="U22" t="n">
-        <v>747.3127722234207</v>
+        <v>1043.554757839315</v>
       </c>
       <c r="V22" t="n">
-        <v>677.3764581697765</v>
+        <v>973.6184437856713</v>
       </c>
       <c r="W22" t="n">
-        <v>572.7074622850586</v>
+        <v>868.9494479009534</v>
       </c>
       <c r="X22" t="n">
-        <v>529.4660855392839</v>
+        <v>825.7080711551787</v>
       </c>
       <c r="Y22" t="n">
-        <v>493.4216805479964</v>
+        <v>789.6636661638912</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190.219371301539</v>
+        <v>1190.219371301538</v>
       </c>
       <c r="C23" t="n">
-        <v>1006.00502851337</v>
+        <v>1006.005028513369</v>
       </c>
       <c r="D23" t="n">
         <v>832.4875040588618</v>
       </c>
       <c r="E23" t="n">
-        <v>631.4474256128602</v>
+        <v>631.4474256128603</v>
       </c>
       <c r="F23" t="n">
-        <v>405.2096949754954</v>
+        <v>405.2096949754955</v>
       </c>
       <c r="G23" t="n">
         <v>173.2756385815838</v>
@@ -5987,28 +5987,28 @@
         <v>43.95404891172068</v>
       </c>
       <c r="J23" t="n">
-        <v>98.92398055693315</v>
+        <v>266.3296295772863</v>
       </c>
       <c r="K23" t="n">
-        <v>552.9521352997593</v>
+        <v>720.3577843201125</v>
       </c>
       <c r="L23" t="n">
-        <v>1096.883490582303</v>
+        <v>957.8509214520163</v>
       </c>
       <c r="M23" t="n">
-        <v>1353.377044833614</v>
+        <v>1214.344475703327</v>
       </c>
       <c r="N23" t="n">
-        <v>1618.634741327299</v>
+        <v>1479.602172197012</v>
       </c>
       <c r="O23" t="n">
-        <v>1951.902322727742</v>
+        <v>1716.742231925844</v>
       </c>
       <c r="P23" t="n">
-        <v>2119.79487641816</v>
+        <v>1884.634785616262</v>
       </c>
       <c r="Q23" t="n">
-        <v>2197.702445586034</v>
+        <v>2172.734195537441</v>
       </c>
       <c r="R23" t="n">
         <v>2197.702445586034</v>
@@ -6029,10 +6029,10 @@
         <v>1786.179779145824</v>
       </c>
       <c r="X23" t="n">
-        <v>1597.462195036987</v>
+        <v>1597.462195036986</v>
       </c>
       <c r="Y23" t="n">
-        <v>1392.071037213418</v>
+        <v>1392.071037213417</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>715.3861333893774</v>
+        <v>810.3379094423543</v>
       </c>
       <c r="C24" t="n">
-        <v>540.9331041082504</v>
+        <v>635.8848801612273</v>
       </c>
       <c r="D24" t="n">
-        <v>391.9986944469991</v>
+        <v>486.9504704999761</v>
       </c>
       <c r="E24" t="n">
-        <v>289.3089275186839</v>
+        <v>327.7130154945206</v>
       </c>
       <c r="F24" t="n">
-        <v>142.7743695455689</v>
+        <v>181.1784575214056</v>
       </c>
       <c r="G24" t="n">
-        <v>142.7743695455689</v>
+        <v>43.95404891172068</v>
       </c>
       <c r="H24" t="n">
         <v>43.95404891172068</v>
@@ -6066,25 +6066,25 @@
         <v>43.95404891172068</v>
       </c>
       <c r="J24" t="n">
-        <v>57.87591666088488</v>
+        <v>182.7060416478897</v>
       </c>
       <c r="K24" t="n">
-        <v>159.8254308116011</v>
+        <v>546.4761404410588</v>
       </c>
       <c r="L24" t="n">
-        <v>385.2647999712572</v>
+        <v>729.8823847233339</v>
       </c>
       <c r="M24" t="n">
-        <v>929.1961552538005</v>
+        <v>963.2656892593425</v>
       </c>
       <c r="N24" t="n">
-        <v>1473.127510536344</v>
+        <v>1217.23460032847</v>
       </c>
       <c r="O24" t="n">
-        <v>1683.239652111745</v>
+        <v>1475.263137253254</v>
       </c>
       <c r="P24" t="n">
-        <v>2147.818244249877</v>
+        <v>1939.841729391386</v>
       </c>
       <c r="Q24" t="n">
         <v>2197.702445586034</v>
@@ -6093,25 +6093,25 @@
         <v>2190.062900041532</v>
       </c>
       <c r="S24" t="n">
-        <v>2044.626586986094</v>
+        <v>2190.062900041532</v>
       </c>
       <c r="T24" t="n">
-        <v>1848.511909214492</v>
+        <v>2111.679022287537</v>
       </c>
       <c r="U24" t="n">
-        <v>1620.387397319808</v>
+        <v>1883.554510392853</v>
       </c>
       <c r="V24" t="n">
-        <v>1385.235289088066</v>
+        <v>1648.402402161111</v>
       </c>
       <c r="W24" t="n">
-        <v>1130.997932359864</v>
+        <v>1394.165045432909</v>
       </c>
       <c r="X24" t="n">
-        <v>923.1464321543313</v>
+        <v>1186.313545227376</v>
       </c>
       <c r="Y24" t="n">
-        <v>715.3861333893774</v>
+        <v>978.5532464624223</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>238.9840062073002</v>
+        <v>516.9192711070389</v>
       </c>
       <c r="C25" t="n">
-        <v>238.9840062073002</v>
+        <v>516.9192711070389</v>
       </c>
       <c r="D25" t="n">
-        <v>88.86736679496443</v>
+        <v>516.9192711070389</v>
       </c>
       <c r="E25" t="n">
-        <v>88.86736679496443</v>
+        <v>516.9192711070389</v>
       </c>
       <c r="F25" t="n">
-        <v>88.86736679496443</v>
+        <v>370.0293236091285</v>
       </c>
       <c r="G25" t="n">
-        <v>43.95404891172068</v>
+        <v>201.6043949190465</v>
       </c>
       <c r="H25" t="n">
-        <v>43.95404891172068</v>
+        <v>48.96715323349135</v>
       </c>
       <c r="I25" t="n">
-        <v>43.95404891172068</v>
+        <v>48.96715323349135</v>
       </c>
       <c r="J25" t="n">
         <v>43.95404891172068</v>
       </c>
       <c r="K25" t="n">
-        <v>165.7167528601155</v>
+        <v>165.7167528601156</v>
       </c>
       <c r="L25" t="n">
-        <v>377.0575270853038</v>
+        <v>377.0575270853039</v>
       </c>
       <c r="M25" t="n">
-        <v>610.2758644371766</v>
+        <v>610.2758644371767</v>
       </c>
       <c r="N25" t="n">
-        <v>843.3834074172896</v>
+        <v>843.3834074172897</v>
       </c>
       <c r="O25" t="n">
         <v>1042.679657394081</v>
@@ -6169,28 +6169,28 @@
         <v>1208.039539684806</v>
       </c>
       <c r="R25" t="n">
-        <v>1208.039539684806</v>
+        <v>1085.741197419553</v>
       </c>
       <c r="S25" t="n">
-        <v>1188.517734316388</v>
+        <v>1066.219392051135</v>
       </c>
       <c r="T25" t="n">
-        <v>1148.413990579461</v>
+        <v>875.2044423444752</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.019911017449</v>
+        <v>770.8103627824631</v>
       </c>
       <c r="V25" t="n">
-        <v>974.0835969638052</v>
+        <v>700.8740487288189</v>
       </c>
       <c r="W25" t="n">
-        <v>684.6664269268447</v>
+        <v>596.205052844101</v>
       </c>
       <c r="X25" t="n">
-        <v>641.42505018107</v>
+        <v>552.9636760983263</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.6324710375399</v>
+        <v>516.9192711070389</v>
       </c>
     </row>
     <row r="26">
@@ -6209,46 +6209,46 @@
         <v>1304.603692618875</v>
       </c>
       <c r="E26" t="n">
-        <v>998.9252344899884</v>
+        <v>998.9252344899885</v>
       </c>
       <c r="F26" t="n">
-        <v>668.0491241697384</v>
+        <v>668.0491241697387</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4766880929415</v>
+        <v>331.4766880929413</v>
       </c>
       <c r="H26" t="n">
-        <v>97.51671874019293</v>
+        <v>97.51671874019291</v>
       </c>
       <c r="I26" t="n">
         <v>73.56855591917825</v>
       </c>
       <c r="J26" t="n">
-        <v>141.3168702940116</v>
+        <v>295.9441365847438</v>
       </c>
       <c r="K26" t="n">
-        <v>274.4410665913847</v>
+        <v>749.97229132757</v>
       </c>
       <c r="L26" t="n">
-        <v>889.9797680078342</v>
+        <v>952.0263903390736</v>
       </c>
       <c r="M26" t="n">
-        <v>1591.491720417049</v>
+        <v>1653.538342748289</v>
       </c>
       <c r="N26" t="n">
-        <v>2289.722872078598</v>
+        <v>2351.769494409838</v>
       </c>
       <c r="O26" t="n">
-        <v>2903.855111257548</v>
+        <v>2878.886861208955</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.328386037733</v>
+        <v>3365.36013598914</v>
       </c>
       <c r="Q26" t="n">
-        <v>3678.427795958913</v>
+        <v>3653.45954591032</v>
       </c>
       <c r="R26" t="n">
-        <v>3678.427795958913</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S26" t="n">
         <v>3611.564051292016</v>
@@ -6303,25 +6303,25 @@
         <v>73.56855591917825</v>
       </c>
       <c r="J27" t="n">
-        <v>87.49042366834246</v>
+        <v>212.3205486553472</v>
       </c>
       <c r="K27" t="n">
-        <v>189.4399378190587</v>
+        <v>576.0906474485164</v>
       </c>
       <c r="L27" t="n">
-        <v>405.5686795399128</v>
+        <v>817.9109874405021</v>
       </c>
       <c r="M27" t="n">
-        <v>1099.999997188421</v>
+        <v>1051.294291976511</v>
       </c>
       <c r="N27" t="n">
-        <v>1828.517858857667</v>
+        <v>1305.263203045638</v>
       </c>
       <c r="O27" t="n">
-        <v>2428.55369651703</v>
+        <v>1905.299040705002</v>
       </c>
       <c r="P27" t="n">
-        <v>2577.854147701624</v>
+        <v>2369.877632843134</v>
       </c>
       <c r="Q27" t="n">
         <v>2627.738349037781</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.7589833420766</v>
+        <v>566.7589833420768</v>
       </c>
       <c r="C28" t="n">
-        <v>477.9325948835271</v>
+        <v>477.9325948835273</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9257499405488</v>
+        <v>407.9257499405489</v>
       </c>
       <c r="E28" t="n">
-        <v>340.122450827513</v>
+        <v>340.1224508275131</v>
       </c>
       <c r="F28" t="n">
         <v>273.3422977989601</v>
@@ -6388,10 +6388,10 @@
         <v>347.44913544064</v>
       </c>
       <c r="L28" t="n">
-        <v>637.3055192252455</v>
+        <v>637.3055192252452</v>
       </c>
       <c r="M28" t="n">
-        <v>949.0394661365353</v>
+        <v>949.0394661365352</v>
       </c>
       <c r="N28" t="n">
         <v>1260.662618676065</v>
@@ -6409,25 +6409,25 @@
         <v>1818.677031825937</v>
       </c>
       <c r="S28" t="n">
-        <v>1694.516846774633</v>
+        <v>1694.516846774634</v>
       </c>
       <c r="T28" t="n">
         <v>1549.774723354822</v>
       </c>
       <c r="U28" t="n">
-        <v>1340.742264109924</v>
+        <v>1340.742264109925</v>
       </c>
       <c r="V28" t="n">
         <v>1166.167570373395</v>
       </c>
       <c r="W28" t="n">
-        <v>956.8601948057915</v>
+        <v>956.8601948057918</v>
       </c>
       <c r="X28" t="n">
-        <v>808.9804383771316</v>
+        <v>808.9804383771318</v>
       </c>
       <c r="Y28" t="n">
-        <v>668.2976537029589</v>
+        <v>668.2976537029591</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.612319227323</v>
+        <v>1871.612319227322</v>
       </c>
       <c r="C29" t="n">
         <v>1582.759596756268</v>
@@ -6446,25 +6446,25 @@
         <v>1304.603692618875</v>
       </c>
       <c r="E29" t="n">
-        <v>998.9252344899886</v>
+        <v>998.9252344899879</v>
       </c>
       <c r="F29" t="n">
-        <v>668.0491241697384</v>
+        <v>668.0491241697378</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4766880929415</v>
+        <v>331.4766880929413</v>
       </c>
       <c r="H29" t="n">
-        <v>97.51671874019287</v>
+        <v>97.5167187401929</v>
       </c>
       <c r="I29" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9441365847437</v>
+        <v>295.9441365847438</v>
       </c>
       <c r="K29" t="n">
-        <v>749.9722913275699</v>
+        <v>749.97229132757</v>
       </c>
       <c r="L29" t="n">
         <v>1365.510992744019</v>
@@ -6473,25 +6473,25 @@
         <v>2067.022945153235</v>
       </c>
       <c r="N29" t="n">
-        <v>2666.715051528714</v>
+        <v>2765.254096814784</v>
       </c>
       <c r="O29" t="n">
-        <v>2903.855111257545</v>
+        <v>3222.435832347314</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.328386037731</v>
+        <v>3390.328386037732</v>
       </c>
       <c r="Q29" t="n">
-        <v>3678.42779595891</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="R29" t="n">
-        <v>3678.42779595891</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S29" t="n">
-        <v>3611.564051292014</v>
+        <v>3611.564051292015</v>
       </c>
       <c r="T29" t="n">
-        <v>3478.649284483331</v>
+        <v>3478.649284483332</v>
       </c>
       <c r="U29" t="n">
         <v>3305.099819795234</v>
@@ -6537,22 +6537,22 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I30" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J30" t="n">
         <v>212.3205486553472</v>
       </c>
       <c r="K30" t="n">
-        <v>314.2700628060634</v>
+        <v>576.0906474485163</v>
       </c>
       <c r="L30" t="n">
-        <v>817.9109874405021</v>
+        <v>1126.628833581216</v>
       </c>
       <c r="M30" t="n">
-        <v>1051.294291976511</v>
+        <v>1360.012138117225</v>
       </c>
       <c r="N30" t="n">
-        <v>1305.263203045638</v>
+        <v>1613.981049186352</v>
       </c>
       <c r="O30" t="n">
         <v>1905.299040705002</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.7589833420764</v>
+        <v>566.7589833420768</v>
       </c>
       <c r="C31" t="n">
-        <v>477.9325948835269</v>
+        <v>477.9325948835273</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9257499405486</v>
+        <v>407.9257499405489</v>
       </c>
       <c r="E31" t="n">
-        <v>340.1224508275129</v>
+        <v>340.1224508275131</v>
       </c>
       <c r="F31" t="n">
-        <v>273.34229779896</v>
+        <v>273.3422977989601</v>
       </c>
       <c r="G31" t="n">
-        <v>185.0271635782353</v>
+        <v>185.0271635782354</v>
       </c>
       <c r="H31" t="n">
         <v>112.4997163620377</v>
       </c>
       <c r="I31" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J31" t="n">
         <v>147.1708219328279</v>
@@ -6628,10 +6628,10 @@
         <v>637.3055192252455</v>
       </c>
       <c r="M31" t="n">
-        <v>949.0394661365352</v>
+        <v>949.0394661365355</v>
       </c>
       <c r="N31" t="n">
-        <v>1260.662618676065</v>
+        <v>1260.662618676066</v>
       </c>
       <c r="O31" t="n">
         <v>1538.474478212274</v>
@@ -6640,31 +6640,31 @@
         <v>1764.001776889044</v>
       </c>
       <c r="Q31" t="n">
-        <v>1860.865579621834</v>
+        <v>1860.865579621833</v>
       </c>
       <c r="R31" t="n">
-        <v>1818.677031825938</v>
+        <v>1818.677031825937</v>
       </c>
       <c r="S31" t="n">
-        <v>1694.516846774633</v>
+        <v>1694.516846774634</v>
       </c>
       <c r="T31" t="n">
         <v>1549.774723354822</v>
       </c>
       <c r="U31" t="n">
-        <v>1340.742264109924</v>
+        <v>1340.742264109925</v>
       </c>
       <c r="V31" t="n">
         <v>1166.167570373395</v>
       </c>
       <c r="W31" t="n">
-        <v>956.8601948057915</v>
+        <v>956.8601948057918</v>
       </c>
       <c r="X31" t="n">
-        <v>808.9804383771316</v>
+        <v>808.9804383771318</v>
       </c>
       <c r="Y31" t="n">
-        <v>668.2976537029587</v>
+        <v>668.2976537029591</v>
       </c>
     </row>
     <row r="32">
@@ -6689,61 +6689,61 @@
         <v>668.049124169738</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4766880929415</v>
+        <v>331.476688092941</v>
       </c>
       <c r="H32" t="n">
-        <v>97.51671874019279</v>
+        <v>97.51671874019291</v>
       </c>
       <c r="I32" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J32" t="n">
-        <v>295.9441365847437</v>
+        <v>295.9441365847438</v>
       </c>
       <c r="K32" t="n">
-        <v>749.9722913275699</v>
+        <v>429.0683328821169</v>
       </c>
       <c r="L32" t="n">
-        <v>1365.510992744019</v>
+        <v>1044.607034298566</v>
       </c>
       <c r="M32" t="n">
-        <v>2067.022945153235</v>
+        <v>1566.523470368455</v>
       </c>
       <c r="N32" t="n">
-        <v>2474.946462783309</v>
+        <v>2264.754622030005</v>
       </c>
       <c r="O32" t="n">
-        <v>3089.078701962258</v>
+        <v>2878.886861208954</v>
       </c>
       <c r="P32" t="n">
-        <v>3575.551976742444</v>
+        <v>3365.36013598914</v>
       </c>
       <c r="Q32" t="n">
-        <v>3653.459545910318</v>
+        <v>3653.459545910319</v>
       </c>
       <c r="R32" t="n">
-        <v>3678.42779595891</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S32" t="n">
-        <v>3611.564051292014</v>
+        <v>3611.564051292015</v>
       </c>
       <c r="T32" t="n">
-        <v>3478.649284483331</v>
+        <v>3478.649284483332</v>
       </c>
       <c r="U32" t="n">
-        <v>3305.099819795233</v>
+        <v>3305.099819795234</v>
       </c>
       <c r="V32" t="n">
-        <v>3054.146726921019</v>
+        <v>3054.14672692102</v>
       </c>
       <c r="W32" t="n">
-        <v>2781.487866120263</v>
+        <v>2781.487866120264</v>
       </c>
       <c r="X32" t="n">
-        <v>2488.13190232854</v>
+        <v>2488.131902328541</v>
       </c>
       <c r="Y32" t="n">
-        <v>2178.102364822086</v>
+        <v>2178.102364822087</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>112.0025186565749</v>
       </c>
       <c r="I33" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J33" t="n">
-        <v>87.49042366834242</v>
+        <v>212.3205486553472</v>
       </c>
       <c r="K33" t="n">
-        <v>189.4399378190587</v>
+        <v>576.0906474485163</v>
       </c>
       <c r="L33" t="n">
-        <v>372.8461821013337</v>
+        <v>1126.628833581216</v>
       </c>
       <c r="M33" t="n">
-        <v>1067.277499749842</v>
+        <v>1360.012138117225</v>
       </c>
       <c r="N33" t="n">
-        <v>1620.541343999176</v>
+        <v>1613.981049186352</v>
       </c>
       <c r="O33" t="n">
-        <v>2220.577181658539</v>
+        <v>1905.299040705002</v>
       </c>
       <c r="P33" t="n">
         <v>2369.877632843134</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>566.7589833420759</v>
+        <v>566.7589833420765</v>
       </c>
       <c r="C34" t="n">
-        <v>477.9325948835265</v>
+        <v>477.932594883527</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9257499405482</v>
+        <v>407.9257499405486</v>
       </c>
       <c r="E34" t="n">
-        <v>340.1224508275126</v>
+        <v>340.1224508275129</v>
       </c>
       <c r="F34" t="n">
-        <v>273.3422977989597</v>
+        <v>273.3422977989599</v>
       </c>
       <c r="G34" t="n">
         <v>185.0271635782352</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4997163620376</v>
+        <v>112.4997163620374</v>
       </c>
       <c r="I34" t="n">
-        <v>73.56855591917821</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J34" t="n">
-        <v>147.1708219328252</v>
+        <v>147.170821932828</v>
       </c>
       <c r="K34" t="n">
-        <v>347.4491354406373</v>
+        <v>347.44913544064</v>
       </c>
       <c r="L34" t="n">
-        <v>637.3055192252428</v>
+        <v>637.3055192252455</v>
       </c>
       <c r="M34" t="n">
-        <v>949.0394661365328</v>
+        <v>949.0394661365348</v>
       </c>
       <c r="N34" t="n">
-        <v>1260.662618676063</v>
+        <v>1260.662618676065</v>
       </c>
       <c r="O34" t="n">
-        <v>1538.474478212272</v>
+        <v>1538.474478212274</v>
       </c>
       <c r="P34" t="n">
-        <v>1764.001776889042</v>
+        <v>1764.001776889043</v>
       </c>
       <c r="Q34" t="n">
-        <v>1860.865579621832</v>
+        <v>1860.865579621833</v>
       </c>
       <c r="R34" t="n">
-        <v>1818.677031825936</v>
+        <v>1818.677031825937</v>
       </c>
       <c r="S34" t="n">
-        <v>1694.516846774632</v>
+        <v>1694.516846774633</v>
       </c>
       <c r="T34" t="n">
-        <v>1549.77472335482</v>
+        <v>1549.774723354822</v>
       </c>
       <c r="U34" t="n">
-        <v>1340.742264109923</v>
+        <v>1340.742264109924</v>
       </c>
       <c r="V34" t="n">
-        <v>1166.167570373394</v>
+        <v>1166.167570373395</v>
       </c>
       <c r="W34" t="n">
-        <v>956.8601948057906</v>
+        <v>956.8601948057915</v>
       </c>
       <c r="X34" t="n">
-        <v>808.9804383771307</v>
+        <v>808.9804383771316</v>
       </c>
       <c r="Y34" t="n">
-        <v>668.2976537029581</v>
+        <v>668.2976537029588</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817077</v>
       </c>
       <c r="C35" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148578</v>
       </c>
       <c r="D35" t="n">
-        <v>963.8659528137384</v>
+        <v>963.86595281374</v>
       </c>
       <c r="E35" t="n">
-        <v>732.0242284874068</v>
+        <v>732.0242284874084</v>
       </c>
       <c r="F35" t="n">
-        <v>474.9848519697121</v>
+        <v>474.9848519697136</v>
       </c>
       <c r="G35" t="n">
         <v>212.2491496954707</v>
       </c>
       <c r="H35" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="I35" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="J35" t="n">
-        <v>274.5014948108431</v>
+        <v>274.5014948108432</v>
       </c>
       <c r="K35" t="n">
-        <v>692.4048205339907</v>
+        <v>407.6256911082164</v>
       </c>
       <c r="L35" t="n">
-        <v>894.4589195454943</v>
+        <v>609.67979011972</v>
       </c>
       <c r="M35" t="n">
-        <v>1539.517107093305</v>
+        <v>1254.737977667531</v>
       </c>
       <c r="N35" t="n">
-        <v>1804.77480358699</v>
+        <v>1899.796165215341</v>
       </c>
       <c r="O35" t="n">
-        <v>2041.914863315821</v>
+        <v>2136.936224944173</v>
       </c>
       <c r="P35" t="n">
-        <v>2528.388138096007</v>
+        <v>2318.196297342702</v>
       </c>
       <c r="Q35" t="n">
         <v>2606.295707263881</v>
@@ -6965,22 +6965,22 @@
         <v>2606.295707263881</v>
       </c>
       <c r="T35" t="n">
-        <v>2547.217674257753</v>
+        <v>2547.217674257754</v>
       </c>
       <c r="U35" t="n">
-        <v>2447.50494337221</v>
+        <v>2447.504943372211</v>
       </c>
       <c r="V35" t="n">
-        <v>2270.388584300552</v>
+        <v>2270.388584300553</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.56645730235</v>
+        <v>2071.566457302352</v>
       </c>
       <c r="X35" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313185</v>
       </c>
       <c r="Y35" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609286</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.7640580471561</v>
+        <v>955.7640580471563</v>
       </c>
       <c r="C36" t="n">
-        <v>781.3110287660292</v>
+        <v>781.3110287660293</v>
       </c>
       <c r="D36" t="n">
         <v>632.376619104778</v>
@@ -7002,31 +7002,31 @@
         <v>473.1391640993224</v>
       </c>
       <c r="F36" t="n">
-        <v>326.6046061262075</v>
+        <v>326.6046061262074</v>
       </c>
       <c r="G36" t="n">
-        <v>189.3801975165229</v>
+        <v>189.3801975165225</v>
       </c>
       <c r="H36" t="n">
-        <v>90.5598768826743</v>
+        <v>90.55987688267433</v>
       </c>
       <c r="I36" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="J36" t="n">
-        <v>66.04778189444181</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K36" t="n">
-        <v>167.9972960451581</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L36" t="n">
-        <v>351.4035403274331</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M36" t="n">
-        <v>996.4617278752436</v>
+        <v>1419.775346286572</v>
       </c>
       <c r="N36" t="n">
-        <v>1641.519915423054</v>
+        <v>1673.7442573557</v>
       </c>
       <c r="O36" t="n">
         <v>1883.856398931101</v>
@@ -7050,7 +7050,7 @@
         <v>2028.980658997655</v>
       </c>
       <c r="V36" t="n">
-        <v>1793.828550765913</v>
+        <v>1793.828550765912</v>
       </c>
       <c r="W36" t="n">
         <v>1539.591194037711</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.7106086317769</v>
+        <v>382.4304449892643</v>
       </c>
       <c r="C37" t="n">
-        <v>216.7209539757827</v>
+        <v>367.4407903332701</v>
       </c>
       <c r="D37" t="n">
-        <v>66.60431456344698</v>
+        <v>367.4407903332701</v>
       </c>
       <c r="E37" t="n">
-        <v>66.60431456344698</v>
+        <v>367.4407903332701</v>
       </c>
       <c r="F37" t="n">
-        <v>66.60431456344698</v>
+        <v>220.5508428353597</v>
       </c>
       <c r="G37" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="H37" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="I37" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="J37" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="K37" t="n">
         <v>173.8886180936725</v>
       </c>
       <c r="L37" t="n">
-        <v>385.2293923188607</v>
+        <v>385.2293923188608</v>
       </c>
       <c r="M37" t="n">
-        <v>618.4477296707335</v>
+        <v>618.4477296707337</v>
       </c>
       <c r="N37" t="n">
-        <v>851.5552726508465</v>
+        <v>851.5552726508467</v>
       </c>
       <c r="O37" t="n">
         <v>1050.851522627638</v>
       </c>
       <c r="P37" t="n">
-        <v>1197.86321174499</v>
+        <v>1197.863211744991</v>
       </c>
       <c r="Q37" t="n">
         <v>1216.211404918363</v>
@@ -7120,25 +7120,25 @@
         <v>1216.211404918363</v>
       </c>
       <c r="S37" t="n">
-        <v>1165.887953669615</v>
+        <v>1147.277700075847</v>
       </c>
       <c r="T37" t="n">
-        <v>1094.982564052358</v>
+        <v>922.4257821866775</v>
       </c>
       <c r="U37" t="n">
-        <v>959.7868386100162</v>
+        <v>787.2300567443355</v>
       </c>
       <c r="V37" t="n">
-        <v>705.1023504041293</v>
+        <v>686.4920968103613</v>
       </c>
       <c r="W37" t="n">
-        <v>569.6317086390814</v>
+        <v>551.0214550453134</v>
       </c>
       <c r="X37" t="n">
-        <v>341.642157741064</v>
+        <v>476.9784324192087</v>
       </c>
       <c r="Y37" t="n">
-        <v>259.4125451901039</v>
+        <v>410.1323815475913</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1383.201111817076</v>
+        <v>1383.201111817075</v>
       </c>
       <c r="C38" t="n">
-        <v>1168.185123148577</v>
+        <v>1168.185123148576</v>
       </c>
       <c r="D38" t="n">
-        <v>963.8659528137396</v>
+        <v>963.8659528137384</v>
       </c>
       <c r="E38" t="n">
-        <v>732.024228487408</v>
+        <v>732.0242284874073</v>
       </c>
       <c r="F38" t="n">
-        <v>474.9848519697131</v>
+        <v>474.9848519697125</v>
       </c>
       <c r="G38" t="n">
         <v>212.2491496954707</v>
       </c>
       <c r="H38" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="I38" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J38" t="n">
         <v>274.5014948108432</v>
       </c>
       <c r="K38" t="n">
-        <v>407.6256911082162</v>
+        <v>728.5296495536694</v>
       </c>
       <c r="L38" t="n">
-        <v>986.6436920757387</v>
+        <v>930.583748565173</v>
       </c>
       <c r="M38" t="n">
-        <v>1243.13724632705</v>
+        <v>1187.077302816484</v>
       </c>
       <c r="N38" t="n">
-        <v>1888.19543387486</v>
+        <v>1452.334999310169</v>
       </c>
       <c r="O38" t="n">
-        <v>2125.335493603692</v>
+        <v>1831.723022562516</v>
       </c>
       <c r="P38" t="n">
-        <v>2293.22804729411</v>
+        <v>2318.196297342701</v>
       </c>
       <c r="Q38" t="n">
-        <v>2581.327457215289</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="R38" t="n">
         <v>2606.295707263881</v>
@@ -7202,22 +7202,22 @@
         <v>2606.295707263881</v>
       </c>
       <c r="T38" t="n">
-        <v>2547.217674257754</v>
+        <v>2547.217674257753</v>
       </c>
       <c r="U38" t="n">
-        <v>2447.504943372211</v>
+        <v>2447.50494337221</v>
       </c>
       <c r="V38" t="n">
-        <v>2270.388584300553</v>
+        <v>2270.388584300552</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.566457302351</v>
+        <v>2071.56645730235</v>
       </c>
       <c r="X38" t="n">
-        <v>1852.047227313184</v>
+        <v>1852.047227313183</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.854423609285</v>
+        <v>1615.854423609284</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>955.7640580471563</v>
+        <v>955.7640580471561</v>
       </c>
       <c r="C39" t="n">
-        <v>781.3110287660293</v>
+        <v>781.3110287660292</v>
       </c>
       <c r="D39" t="n">
         <v>632.376619104778</v>
@@ -7239,16 +7239,16 @@
         <v>473.1391640993224</v>
       </c>
       <c r="F39" t="n">
-        <v>326.6046061262074</v>
+        <v>326.6046061262075</v>
       </c>
       <c r="G39" t="n">
-        <v>189.3801975165225</v>
+        <v>189.3801975165229</v>
       </c>
       <c r="H39" t="n">
-        <v>90.55987688267433</v>
+        <v>90.5598768826743</v>
       </c>
       <c r="I39" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J39" t="n">
         <v>190.8779068814466</v>
@@ -7260,22 +7260,22 @@
         <v>1105.186191807315</v>
       </c>
       <c r="M39" t="n">
-        <v>1338.569496343324</v>
+        <v>1419.775346286572</v>
       </c>
       <c r="N39" t="n">
-        <v>1807.075217083766</v>
+        <v>1673.7442573557</v>
       </c>
       <c r="O39" t="n">
-        <v>2407.111054743129</v>
+        <v>1883.856398931101</v>
       </c>
       <c r="P39" t="n">
-        <v>2556.411505927724</v>
+        <v>2348.434991069233</v>
       </c>
       <c r="Q39" t="n">
         <v>2606.295707263881</v>
       </c>
       <c r="R39" t="n">
-        <v>2598.656161719378</v>
+        <v>2598.656161719379</v>
       </c>
       <c r="S39" t="n">
         <v>2453.219848663941</v>
@@ -7287,7 +7287,7 @@
         <v>2028.980658997655</v>
       </c>
       <c r="V39" t="n">
-        <v>1793.828550765912</v>
+        <v>1793.828550765913</v>
       </c>
       <c r="W39" t="n">
         <v>1539.591194037711</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.14764203920708</v>
+        <v>81.59396921944118</v>
       </c>
       <c r="C40" t="n">
-        <v>66.60431456344701</v>
+        <v>66.60431456344698</v>
       </c>
       <c r="D40" t="n">
-        <v>66.60431456344701</v>
+        <v>66.60431456344698</v>
       </c>
       <c r="E40" t="n">
-        <v>66.60431456344701</v>
+        <v>66.60431456344698</v>
       </c>
       <c r="F40" t="n">
-        <v>66.60431456344701</v>
+        <v>66.60431456344698</v>
       </c>
       <c r="G40" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="H40" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="I40" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J40" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="K40" t="n">
         <v>173.8886180936725</v>
@@ -7339,43 +7339,43 @@
         <v>385.2293923188608</v>
       </c>
       <c r="M40" t="n">
-        <v>618.4477296707336</v>
+        <v>618.4477296707337</v>
       </c>
       <c r="N40" t="n">
-        <v>851.5552726508465</v>
+        <v>851.5552726508467</v>
       </c>
       <c r="O40" t="n">
         <v>1050.851522627638</v>
       </c>
       <c r="P40" t="n">
-        <v>1197.86321174499</v>
+        <v>1197.863211744991</v>
       </c>
       <c r="Q40" t="n">
         <v>1216.211404918363</v>
       </c>
       <c r="R40" t="n">
-        <v>1216.211404918363</v>
+        <v>1093.91306265311</v>
       </c>
       <c r="S40" t="n">
-        <v>1011.941425397702</v>
+        <v>1043.589611404362</v>
       </c>
       <c r="T40" t="n">
-        <v>941.0360357804454</v>
+        <v>972.6842217871053</v>
       </c>
       <c r="U40" t="n">
-        <v>651.8937820661909</v>
+        <v>794.2866375183377</v>
       </c>
       <c r="V40" t="n">
-        <v>551.1558221322167</v>
+        <v>539.6021493124508</v>
       </c>
       <c r="W40" t="n">
-        <v>261.7386520952561</v>
+        <v>250.1849792754902</v>
       </c>
       <c r="X40" t="n">
-        <v>187.6956294691515</v>
+        <v>176.1419566493856</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8495785975341</v>
+        <v>109.2959057777682</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1168.185123148577</v>
       </c>
       <c r="D41" t="n">
-        <v>963.8659528137391</v>
+        <v>963.8659528137393</v>
       </c>
       <c r="E41" t="n">
-        <v>732.0242284874075</v>
+        <v>732.0242284874078</v>
       </c>
       <c r="F41" t="n">
-        <v>474.9848519697127</v>
+        <v>474.984851969713</v>
       </c>
       <c r="G41" t="n">
         <v>212.2491496954707</v>
@@ -7409,25 +7409,25 @@
         <v>52.12591414527763</v>
       </c>
       <c r="J41" t="n">
-        <v>157.3684756780544</v>
+        <v>274.5014948108432</v>
       </c>
       <c r="K41" t="n">
-        <v>290.4926719754275</v>
+        <v>728.5296495536695</v>
       </c>
       <c r="L41" t="n">
-        <v>906.031373391877</v>
+        <v>930.5837485651731</v>
       </c>
       <c r="M41" t="n">
-        <v>1162.524927643188</v>
+        <v>1187.077302816484</v>
       </c>
       <c r="N41" t="n">
-        <v>1427.782624136873</v>
+        <v>1452.334999310169</v>
       </c>
       <c r="O41" t="n">
-        <v>2041.914863315822</v>
+        <v>1831.723022562516</v>
       </c>
       <c r="P41" t="n">
-        <v>2528.388138096008</v>
+        <v>2318.196297342702</v>
       </c>
       <c r="Q41" t="n">
         <v>2606.295707263881</v>
@@ -7488,46 +7488,46 @@
         <v>52.12591414527763</v>
       </c>
       <c r="J42" t="n">
-        <v>66.04778189444184</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K42" t="n">
-        <v>429.8178806876109</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L42" t="n">
-        <v>980.3560668203105</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M42" t="n">
-        <v>1236.662584666381</v>
+        <v>1419.775346286572</v>
       </c>
       <c r="N42" t="n">
-        <v>1881.720772214192</v>
+        <v>1673.7442573557</v>
       </c>
       <c r="O42" t="n">
-        <v>2091.832913789593</v>
+        <v>1883.856398931101</v>
       </c>
       <c r="P42" t="n">
-        <v>2556.411505927725</v>
+        <v>2348.434991069233</v>
       </c>
       <c r="Q42" t="n">
         <v>2606.295707263881</v>
       </c>
       <c r="R42" t="n">
-        <v>2598.656161719379</v>
+        <v>2598.656161719378</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.219848663942</v>
+        <v>2453.219848663941</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.10517089234</v>
+        <v>2257.105170892339</v>
       </c>
       <c r="U42" t="n">
-        <v>2028.980658997656</v>
+        <v>2028.980658997655</v>
       </c>
       <c r="V42" t="n">
-        <v>1793.828550765914</v>
+        <v>1793.828550765912</v>
       </c>
       <c r="W42" t="n">
-        <v>1539.591194037712</v>
+        <v>1539.591194037711</v>
       </c>
       <c r="X42" t="n">
         <v>1331.739693832178</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>378.6005561296872</v>
+        <v>86.60707354121188</v>
       </c>
       <c r="C43" t="n">
-        <v>363.610901473693</v>
+        <v>71.61741888521767</v>
       </c>
       <c r="D43" t="n">
-        <v>213.4942620613573</v>
+        <v>71.61741888521767</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4942620613573</v>
+        <v>71.61741888521767</v>
       </c>
       <c r="F43" t="n">
-        <v>66.60431456344701</v>
+        <v>71.61741888521767</v>
       </c>
       <c r="G43" t="n">
-        <v>52.12591414527763</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="H43" t="n">
-        <v>52.12591414527763</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="I43" t="n">
-        <v>52.12591414527763</v>
+        <v>57.1390184670483</v>
       </c>
       <c r="J43" t="n">
         <v>52.12591414527763</v>
@@ -7576,43 +7576,43 @@
         <v>385.2293923188608</v>
       </c>
       <c r="M43" t="n">
-        <v>618.4477296707336</v>
+        <v>618.4477296707337</v>
       </c>
       <c r="N43" t="n">
-        <v>851.5552726508465</v>
+        <v>851.5552726508467</v>
       </c>
       <c r="O43" t="n">
         <v>1050.851522627638</v>
       </c>
       <c r="P43" t="n">
-        <v>1197.86321174499</v>
+        <v>1197.863211744991</v>
       </c>
       <c r="Q43" t="n">
         <v>1216.211404918363</v>
       </c>
       <c r="R43" t="n">
-        <v>1216.211404918363</v>
+        <v>1209.670836420368</v>
       </c>
       <c r="S43" t="n">
-        <v>1011.941425397702</v>
+        <v>1005.400856899707</v>
       </c>
       <c r="T43" t="n">
-        <v>941.0360357804454</v>
+        <v>934.4954672824504</v>
       </c>
       <c r="U43" t="n">
-        <v>805.8403103381034</v>
+        <v>799.2997418401084</v>
       </c>
       <c r="V43" t="n">
-        <v>705.1023504041293</v>
+        <v>544.6152536342215</v>
       </c>
       <c r="W43" t="n">
-        <v>569.6317086390814</v>
+        <v>255.1980835972609</v>
       </c>
       <c r="X43" t="n">
-        <v>495.5886860129767</v>
+        <v>181.1550609711563</v>
       </c>
       <c r="Y43" t="n">
-        <v>406.3024926880142</v>
+        <v>114.3090100995389</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817076</v>
       </c>
       <c r="C44" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148577</v>
       </c>
       <c r="D44" t="n">
-        <v>963.8659528137387</v>
+        <v>963.8659528137396</v>
       </c>
       <c r="E44" t="n">
-        <v>732.0242284874071</v>
+        <v>732.0242284874082</v>
       </c>
       <c r="F44" t="n">
-        <v>474.9848519697123</v>
+        <v>474.9848519697134</v>
       </c>
       <c r="G44" t="n">
         <v>212.2491496954707</v>
       </c>
       <c r="H44" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="I44" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="J44" t="n">
-        <v>274.5014948108431</v>
+        <v>274.5014948108432</v>
       </c>
       <c r="K44" t="n">
-        <v>407.6256911082162</v>
+        <v>482.2129797806851</v>
       </c>
       <c r="L44" t="n">
-        <v>609.6797901197198</v>
+        <v>684.2670787921887</v>
       </c>
       <c r="M44" t="n">
-        <v>866.1733443710307</v>
+        <v>1329.325266339999</v>
       </c>
       <c r="N44" t="n">
-        <v>1511.231531918841</v>
+        <v>1594.582962833685</v>
       </c>
       <c r="O44" t="n">
-        <v>2125.363771097791</v>
+        <v>1831.723022562516</v>
       </c>
       <c r="P44" t="n">
-        <v>2528.388138096007</v>
+        <v>2318.196297342702</v>
       </c>
       <c r="Q44" t="n">
         <v>2606.295707263881</v>
@@ -7676,22 +7676,22 @@
         <v>2606.295707263881</v>
       </c>
       <c r="T44" t="n">
-        <v>2547.217674257753</v>
+        <v>2547.217674257754</v>
       </c>
       <c r="U44" t="n">
-        <v>2447.50494337221</v>
+        <v>2447.504943372211</v>
       </c>
       <c r="V44" t="n">
-        <v>2270.388584300552</v>
+        <v>2270.388584300553</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.56645730235</v>
+        <v>2071.566457302351</v>
       </c>
       <c r="X44" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313184</v>
       </c>
       <c r="Y44" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609285</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>955.7640580471563</v>
+        <v>955.7640580471573</v>
       </c>
       <c r="C45" t="n">
-        <v>781.3110287660293</v>
+        <v>781.3110287660303</v>
       </c>
       <c r="D45" t="n">
-        <v>632.376619104778</v>
+        <v>632.376619104779</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1391640993224</v>
+        <v>473.1391640993235</v>
       </c>
       <c r="F45" t="n">
-        <v>326.6046061262074</v>
+        <v>326.6046061262085</v>
       </c>
       <c r="G45" t="n">
-        <v>189.3801975165225</v>
+        <v>189.3801975165237</v>
       </c>
       <c r="H45" t="n">
-        <v>90.5598768826743</v>
+        <v>90.55987688267433</v>
       </c>
       <c r="I45" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="J45" t="n">
-        <v>66.04778189444181</v>
+        <v>190.8779068814466</v>
       </c>
       <c r="K45" t="n">
-        <v>378.0955388672476</v>
+        <v>554.6480056746157</v>
       </c>
       <c r="L45" t="n">
-        <v>928.6337249999472</v>
+        <v>1105.186191807315</v>
       </c>
       <c r="M45" t="n">
-        <v>1162.017029535956</v>
+        <v>1419.775346286573</v>
       </c>
       <c r="N45" t="n">
-        <v>1807.075217083766</v>
+        <v>1673.744257355701</v>
       </c>
       <c r="O45" t="n">
-        <v>2407.111054743129</v>
+        <v>1883.856398931102</v>
       </c>
       <c r="P45" t="n">
-        <v>2556.411505927724</v>
+        <v>2348.434991069234</v>
       </c>
       <c r="Q45" t="n">
         <v>2606.295707263881</v>
       </c>
       <c r="R45" t="n">
-        <v>2598.656161719378</v>
+        <v>2598.656161719379</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.219848663941</v>
+        <v>2453.219848663942</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.105170892339</v>
+        <v>2257.10517089234</v>
       </c>
       <c r="U45" t="n">
-        <v>2028.980658997655</v>
+        <v>2028.980658997656</v>
       </c>
       <c r="V45" t="n">
-        <v>1793.828550765912</v>
+        <v>1793.828550765914</v>
       </c>
       <c r="W45" t="n">
-        <v>1539.591194037711</v>
+        <v>1539.591194037712</v>
       </c>
       <c r="X45" t="n">
-        <v>1331.739693832178</v>
+        <v>1331.739693832179</v>
       </c>
       <c r="Y45" t="n">
-        <v>1123.979395067224</v>
+        <v>1123.979395067225</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.0941703111198</v>
+        <v>535.0676866748194</v>
       </c>
       <c r="C46" t="n">
-        <v>213.4942620613573</v>
+        <v>520.0780320188252</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4942620613573</v>
+        <v>520.0780320188252</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4942620613573</v>
+        <v>520.0780320188252</v>
       </c>
       <c r="F46" t="n">
-        <v>66.60431456344698</v>
+        <v>373.1880845209148</v>
       </c>
       <c r="G46" t="n">
-        <v>52.12591414527761</v>
+        <v>204.7631558308327</v>
       </c>
       <c r="H46" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="I46" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="J46" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527763</v>
       </c>
       <c r="K46" t="n">
         <v>173.8886180936725</v>
       </c>
       <c r="L46" t="n">
-        <v>385.2293923188607</v>
+        <v>385.2293923188608</v>
       </c>
       <c r="M46" t="n">
-        <v>618.4477296707335</v>
+        <v>618.4477296707337</v>
       </c>
       <c r="N46" t="n">
-        <v>851.5552726508465</v>
+        <v>851.5552726508467</v>
       </c>
       <c r="O46" t="n">
         <v>1050.851522627638</v>
       </c>
       <c r="P46" t="n">
-        <v>1197.86321174499</v>
+        <v>1197.863211744991</v>
       </c>
       <c r="Q46" t="n">
         <v>1216.211404918363</v>
@@ -7834,22 +7834,22 @@
         <v>1165.887953669615</v>
       </c>
       <c r="T46" t="n">
-        <v>1094.982564052358</v>
+        <v>1094.982564052359</v>
       </c>
       <c r="U46" t="n">
-        <v>805.8403103381036</v>
+        <v>939.8672984298904</v>
       </c>
       <c r="V46" t="n">
-        <v>705.1023504041294</v>
+        <v>839.1293384959163</v>
       </c>
       <c r="W46" t="n">
-        <v>569.6317086390816</v>
+        <v>703.6586967308684</v>
       </c>
       <c r="X46" t="n">
-        <v>341.6421577410642</v>
+        <v>629.6156741047638</v>
       </c>
       <c r="Y46" t="n">
-        <v>274.7961068694468</v>
+        <v>562.7696232331464</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.49596527844471</v>
+        <v>40.49596527844466</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>74.83121153107055</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>200.9222468714795</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6772571671349</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>40.34143413747933</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>304.0757828023253</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>40.49596527844471</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>343.8404349235833</v>
       </c>
       <c r="M15" t="n">
-        <v>307.8704850172981</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>287.0769430646526</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>139.449279194622</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>284.5267984361844</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>275.6741295044934</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>37.99472973779714</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.3508202002642</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>40.49596527844471</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>343.8404349235833</v>
       </c>
       <c r="M18" t="n">
-        <v>56.76349185893201</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>287.0769430646524</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>245.1588955720043</v>
       </c>
       <c r="L20" t="n">
-        <v>339.5161471632625</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>54.66973381197693</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>304.0757828023247</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>199.9293063773271</v>
+        <v>25.37766628364614</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>287.0769430646524</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>331.3767102300329</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>345.3305618899392</v>
+        <v>35.79700820242448</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>97.09850673900215</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>40.49596527844471</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>42.45770189634442</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>313.6848997439745</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>292.891357791329</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>48.40039934281117</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>12.90745730264736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>292.9063707780655</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>40.49596527844471</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>33.05302771573636</v>
+        <v>59.00413708051579</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10121,19 +10121,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>337.8125352341353</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>222.2643189936348</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>40.49596527844471</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>323.4693740930946</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>82.02611105378617</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,16 +10349,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>268.1039210288666</v>
       </c>
       <c r="N32" t="n">
-        <v>144.1068900367571</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>302.3181143234408</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>82.02611105378617</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>287.6556862886611</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>392.4895285823228</v>
+        <v>392.489528582323</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>383.6368596506319</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>13.50254414960742</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.49596527844471</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,22 +10662,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>415.8332151634363</v>
+        <v>82.02611105378634</v>
       </c>
       <c r="N36" t="n">
-        <v>395.0396732107907</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>32.54984033600613</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,28 +10823,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>380.7716181373929</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>383.6368596506319</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>143.6848116399142</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>82.02611105378634</v>
       </c>
       <c r="N39" t="n">
-        <v>216.7038481528433</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>50.78043422986291</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>143.6848116399146</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>40.49596527844471</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>23.1547609192545</v>
+        <v>82.02611105378634</v>
       </c>
       <c r="N42" t="n">
-        <v>395.039673210791</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>75.34069562875635</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>392.489528582323</v>
       </c>
       <c r="N44" t="n">
-        <v>383.6368596506318</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>237.5068821290895</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.49596527844471</v>
+        <v>40.49596527844469</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>212.2204472950399</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>82.0261110537873</v>
       </c>
       <c r="N45" t="n">
-        <v>395.0396732107907</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.1418457774242</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>261.6808958849512</v>
+        <v>261.6808958849511</v>
       </c>
       <c r="D11" t="n">
-        <v>251.0910457346266</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>278.3383741862053</v>
       </c>
       <c r="F11" t="n">
         <v>303.284049855655</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.9234123546363</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>207.3370702978283</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>41.9118078588345</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>224.1602625840785</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>245.6489728313566</v>
       </c>
       <c r="X11" t="n">
-        <v>259.2374390355964</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>177.1199284342207</v>
       </c>
     </row>
     <row r="12">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>261.6808958849512</v>
+        <v>261.6808958849511</v>
       </c>
       <c r="D14" t="n">
-        <v>251.0910457346266</v>
+        <v>251.0910457346265</v>
       </c>
       <c r="E14" t="n">
-        <v>278.3383741862054</v>
+        <v>278.3383741862053</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.63432922710669</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>41.91180785883451</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.3023197792037</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>147.5306706798247</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>21.73318477497064</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>282.6459427699972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>22.56458067128669</v>
+        <v>22.56458067128852</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>22.56458067128672</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>22.56458067128784</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1217175.500640107</v>
+        <v>1217175.500640106</v>
       </c>
     </row>
     <row r="7">
@@ -26326,31 +26326,31 @@
         <v>128422.1417803737</v>
       </c>
       <c r="G2" t="n">
-        <v>143367.9851174986</v>
+        <v>143367.9851174985</v>
       </c>
       <c r="H2" t="n">
         <v>143367.9851174985</v>
       </c>
       <c r="I2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="J2" t="n">
+        <v>143682.3097262494</v>
+      </c>
+      <c r="K2" t="n">
+        <v>143682.3097262494</v>
+      </c>
+      <c r="L2" t="n">
+        <v>143682.3097262494</v>
+      </c>
+      <c r="M2" t="n">
         <v>143682.3097262495</v>
-      </c>
-      <c r="K2" t="n">
-        <v>143682.3097262495</v>
-      </c>
-      <c r="L2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262495</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262495</v>
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>746153.5340830688</v>
+        <v>746153.5340830691</v>
       </c>
       <c r="F3" t="n">
-        <v>53805.21405764116</v>
+        <v>53805.21405764099</v>
       </c>
       <c r="G3" t="n">
-        <v>63446.95721973106</v>
+        <v>63446.95721973104</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1546.174978532584</v>
+        <v>1546.174978532644</v>
       </c>
       <c r="J3" t="n">
-        <v>96855.72589324038</v>
+        <v>96855.72589324035</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63446.95721973114</v>
+        <v>63446.95721973103</v>
       </c>
       <c r="M3" t="n">
-        <v>80357.16505209087</v>
+        <v>80357.16505209099</v>
       </c>
       <c r="N3" t="n">
-        <v>45993.55612927236</v>
+        <v>45993.5561292721</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>142908.810353844</v>
       </c>
       <c r="F4" t="n">
-        <v>168497.4496037432</v>
+        <v>168497.4496037431</v>
       </c>
       <c r="G4" t="n">
-        <v>217171.7787696233</v>
+        <v>217171.7787696231</v>
       </c>
       <c r="H4" t="n">
         <v>217171.7787696232</v>
       </c>
       <c r="I4" t="n">
-        <v>217964.0846343739</v>
+        <v>217964.0846343738</v>
       </c>
       <c r="J4" t="n">
-        <v>207063.1162296207</v>
+        <v>207063.1162296206</v>
       </c>
       <c r="K4" t="n">
         <v>207063.1162296206</v>
@@ -26448,10 +26448,10 @@
         <v>207063.1162296206</v>
       </c>
       <c r="M4" t="n">
+        <v>213872.961061016</v>
+      </c>
+      <c r="N4" t="n">
         <v>213872.9610610159</v>
-      </c>
-      <c r="N4" t="n">
-        <v>213872.961061016</v>
       </c>
       <c r="O4" t="n">
         <v>213872.961061016</v>
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>45458.11311732122</v>
+        <v>45458.11311732124</v>
       </c>
       <c r="F5" t="n">
-        <v>56875.42608265275</v>
+        <v>56875.42608265272</v>
       </c>
       <c r="G5" t="n">
-        <v>63542.8288907847</v>
+        <v>63542.82889078469</v>
       </c>
       <c r="H5" t="n">
-        <v>63542.8288907847</v>
+        <v>63542.82889078469</v>
       </c>
       <c r="I5" t="n">
         <v>63896.34530616664</v>
@@ -26494,22 +26494,22 @@
         <v>77694.49512968952</v>
       </c>
       <c r="K5" t="n">
-        <v>77694.49512968949</v>
+        <v>77694.49512968952</v>
       </c>
       <c r="L5" t="n">
-        <v>77694.4951296895</v>
+        <v>77694.49512968952</v>
       </c>
       <c r="M5" t="n">
+        <v>67543.39395183162</v>
+      </c>
+      <c r="N5" t="n">
         <v>67543.39395183159</v>
       </c>
-      <c r="N5" t="n">
-        <v>67543.3939518316</v>
-      </c>
       <c r="O5" t="n">
-        <v>67543.3939518316</v>
+        <v>67543.39395183162</v>
       </c>
       <c r="P5" t="n">
-        <v>67543.39395183159</v>
+        <v>67543.39395183162</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337278.8609969111</v>
+        <v>-337283.2745747793</v>
       </c>
       <c r="C6" t="n">
-        <v>-337278.8609969111</v>
+        <v>-337283.2745747793</v>
       </c>
       <c r="D6" t="n">
-        <v>-337278.8609969111</v>
+        <v>-337283.2745747792</v>
       </c>
       <c r="E6" t="n">
-        <v>-816249.8738760168</v>
+        <v>-816612.8985338463</v>
       </c>
       <c r="F6" t="n">
-        <v>-150755.9479636634</v>
+        <v>-150973.9503628899</v>
       </c>
       <c r="G6" t="n">
-        <v>-200793.5797626405</v>
+        <v>-200798.0701141939</v>
       </c>
       <c r="H6" t="n">
-        <v>-137346.6225429094</v>
+        <v>-137351.1128944629</v>
       </c>
       <c r="I6" t="n">
         <v>-139724.2951928235</v>
       </c>
       <c r="J6" t="n">
-        <v>-237931.027526301</v>
+        <v>-237931.0275263011</v>
       </c>
       <c r="K6" t="n">
-        <v>-141075.3016330604</v>
+        <v>-141075.3016330608</v>
       </c>
       <c r="L6" t="n">
         <v>-204522.2588527917</v>
       </c>
       <c r="M6" t="n">
-        <v>-218091.2103386888</v>
+        <v>-218091.210338689</v>
       </c>
       <c r="N6" t="n">
-        <v>-183727.6014158704</v>
+        <v>-183727.6014158701</v>
       </c>
       <c r="O6" t="n">
-        <v>-137734.045286598</v>
+        <v>-137734.0452865981</v>
       </c>
       <c r="P6" t="n">
-        <v>-137734.045286598</v>
+        <v>-137734.0452865981</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>182.9006924107202</v>
       </c>
       <c r="J2" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="K2" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="M2" t="n">
         <v>152.4070629891936</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175273</v>
       </c>
       <c r="F3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="G3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="H3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="I3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="J3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="K3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="L3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="M3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="N3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="O3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
       <c r="P3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175272</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.8264439505634</v>
+        <v>355.8264439505635</v>
       </c>
       <c r="F4" t="n">
-        <v>543.611196669832</v>
+        <v>543.6111966698315</v>
       </c>
       <c r="G4" t="n">
-        <v>543.6111966698318</v>
+        <v>543.6111966698315</v>
       </c>
       <c r="H4" t="n">
-        <v>543.6111966698318</v>
+        <v>543.6111966698315</v>
       </c>
       <c r="I4" t="n">
         <v>549.4256113965084</v>
       </c>
       <c r="J4" t="n">
-        <v>919.6069489897282</v>
+        <v>919.606948989728</v>
       </c>
       <c r="K4" t="n">
-        <v>919.6069489897276</v>
+        <v>919.6069489897279</v>
       </c>
       <c r="L4" t="n">
-        <v>919.6069489897276</v>
+        <v>919.6069489897279</v>
       </c>
       <c r="M4" t="n">
+        <v>651.5739268159704</v>
+      </c>
+      <c r="N4" t="n">
         <v>651.5739268159701</v>
-      </c>
-      <c r="N4" t="n">
-        <v>651.5739268159704</v>
       </c>
       <c r="O4" t="n">
         <v>651.5739268159704</v>
       </c>
       <c r="P4" t="n">
-        <v>651.5739268159701</v>
+        <v>651.5739268159704</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="M2" t="n">
-        <v>73.09836646452966</v>
+        <v>73.09836646452979</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>693.3481570175271</v>
+        <v>693.3481570175273</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.8264439505634</v>
+        <v>355.8264439505635</v>
       </c>
       <c r="F4" t="n">
-        <v>187.7847527192686</v>
+        <v>187.784752719268</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.814414726676659</v>
+        <v>5.814414726676887</v>
       </c>
       <c r="J4" t="n">
-        <v>370.1813375932197</v>
+        <v>370.1813375932196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>87.79342177680593</v>
+        <v>87.79342177680599</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192689</v>
+        <v>187.7847527192678</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>355.8264439505634</v>
+        <v>355.8264439505635</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192686</v>
+        <v>187.784752719268</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>103.5919958860564</v>
@@ -28181,13 +28181,13 @@
         <v>103.5919958860564</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="H12" t="n">
         <v>97.83211742750971</v>
       </c>
       <c r="I12" t="n">
-        <v>38.04962311002273</v>
+        <v>38.04962311002271</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.563150089057089</v>
       </c>
       <c r="S12" t="n">
-        <v>79.52712799203077</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T12" t="n">
         <v>103.5919958860564</v>
@@ -28232,10 +28232,10 @@
         <v>103.5919958860564</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="Y12" t="n">
-        <v>103.5919958860564</v>
+        <v>71.96397790297266</v>
       </c>
     </row>
     <row r="13">
@@ -28269,16 +28269,16 @@
         <v>103.5919958860564</v>
       </c>
       <c r="J13" t="n">
-        <v>4.96297327855298</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="K13" t="n">
-        <v>25.90102793811261</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>30.86400121666566</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>103.5919958860564</v>
@@ -28409,22 +28409,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>103.5919958860564</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I15" t="n">
-        <v>38.04962311002273</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,22 +28451,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.563150089057117</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>10.37365806545586</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>62.59300229388384</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28506,28 +28506,28 @@
         <v>103.5919958860564</v>
       </c>
       <c r="J16" t="n">
-        <v>4.96297327855298</v>
+        <v>103.5919958860564</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>103.5919958860564</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
       <c r="N16" t="n">
-        <v>25.90102793811283</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>30.8640012166652</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.5919958860564</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>103.5919958860564</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28649,19 +28649,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>116.5668389637339</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H18" t="n">
         <v>97.83211742750971</v>
       </c>
       <c r="I18" t="n">
-        <v>38.04962311002273</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,10 +28691,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.396788789316645</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28725,10 +28725,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28737,13 +28737,13 @@
         <v>166.7406794031812</v>
       </c>
       <c r="H19" t="n">
-        <v>72.23575240528226</v>
+        <v>75.01721531219188</v>
       </c>
       <c r="I19" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J19" t="n">
-        <v>4.96297327855298</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28773,10 +28773,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>182.9006924107202</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>182.9006924107202</v>
@@ -28889,16 +28889,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>15.13075521967149</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.563150089057117</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9819499248829</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>122.3674507438097</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28965,22 +28965,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>19.60900963359204</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7406794031812</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,10 +29007,10 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="T22" t="n">
-        <v>72.52181906170495</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="U22" t="n">
         <v>182.9006924107202</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29123,19 +29123,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>55.98221119636887</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.83211742750971</v>
       </c>
       <c r="I24" t="n">
-        <v>38.04962311002273</v>
+        <v>38.04962311002272</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,10 +29165,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.9819499248829</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>116.5534920174316</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>122.2764946987699</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J25" t="n">
-        <v>4.96297327855298</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,13 +29241,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>182.9006924107202</v>
       </c>
       <c r="T25" t="n">
-        <v>182.9006924107202</v>
+        <v>33.49859850068466</v>
       </c>
       <c r="U25" t="n">
         <v>182.9006924107202</v>
@@ -29256,13 +29256,13 @@
         <v>182.9006924107202</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
       <c r="X25" t="n">
         <v>182.9006924107202</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>182.9006924107202</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="K28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="L28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.30869652466356</v>
       </c>
       <c r="M28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="N28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="O28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="P28" t="n">
-        <v>79.30869652466311</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="R28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="S28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.30869652466382</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="C31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="D31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="E31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="F31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="G31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="H31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="I31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="J31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="K31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="L31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="M31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="N31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="O31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="P31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.30869652466366</v>
       </c>
       <c r="R31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="S31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="T31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="U31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="V31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="W31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="X31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.30869652466383</v>
+        <v>79.3086965246638</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="C32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="D32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="E32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="F32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="G32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="H32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="I32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="T32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="U32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="V32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="W32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="X32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="C34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="D34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="E34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="F34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="G34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="H34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="I34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="J34" t="n">
-        <v>79.30869652466102</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="K34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="L34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="M34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="N34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="O34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="P34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="R34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="S34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="T34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="U34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="V34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="W34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="X34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.30869652466392</v>
+        <v>79.30869652466379</v>
       </c>
     </row>
     <row r="35">
@@ -30147,16 +30147,16 @@
         <v>152.4070629891936</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.1108692686995</v>
@@ -30165,7 +30165,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J37" t="n">
-        <v>4.96297327855298</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S37" t="n">
-        <v>152.4070629891936</v>
+        <v>133.9829119313628</v>
       </c>
       <c r="T37" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>152.4070629891936</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="W37" t="n">
         <v>152.4070629891936</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.1773369266443</v>
+        <v>152.4070629891936</v>
       </c>
     </row>
     <row r="38">
@@ -30381,7 +30381,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="C40" t="n">
-        <v>140.9689268976254</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30402,7 +30402,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J40" t="n">
-        <v>4.96297327855298</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,19 +30426,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="T40" t="n">
         <v>152.4070629891936</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>109.6372227510321</v>
       </c>
       <c r="V40" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30621,13 +30621,13 @@
         <v>152.4070629891936</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>152.4070629891936</v>
@@ -30639,7 +30639,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J43" t="n">
-        <v>4.96297327855298</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.0753588426008</v>
+        <v>114.6001960295852</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -30675,16 +30675,16 @@
         <v>152.4070629891936</v>
       </c>
       <c r="V43" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>152.4070629891936</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.1913219603819</v>
+        <v>152.4070629891936</v>
       </c>
     </row>
     <row r="44">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>-1.108446667785756e-12</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30855,7 +30855,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="C46" t="n">
-        <v>133.982911931363</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30867,16 +30867,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.1108692686995</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>117.8505453630947</v>
       </c>
       <c r="J46" t="n">
-        <v>4.96297327855298</v>
+        <v>4.962973278552965</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30909,7 +30909,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>132.6867182108686</v>
       </c>
       <c r="V46" t="n">
         <v>152.4070629891936</v>
@@ -30918,7 +30918,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="Y46" t="n">
         <v>152.4070629891936</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.787329274442318</v>
+        <v>2.787329274442319</v>
       </c>
       <c r="H11" t="n">
         <v>28.5457359318824</v>
@@ -31759,40 +31759,40 @@
         <v>107.4585118529376</v>
       </c>
       <c r="J11" t="n">
-        <v>236.5710880066989</v>
+        <v>236.571088006699</v>
       </c>
       <c r="K11" t="n">
-        <v>354.5587361938423</v>
+        <v>354.5587361938424</v>
       </c>
       <c r="L11" t="n">
-        <v>439.8614644765565</v>
+        <v>439.8614644765566</v>
       </c>
       <c r="M11" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609202</v>
       </c>
       <c r="N11" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O11" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P11" t="n">
-        <v>400.8214338263987</v>
+        <v>400.8214338263988</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.0002041854331</v>
+        <v>301.0002041854332</v>
       </c>
       <c r="R11" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356875</v>
       </c>
       <c r="S11" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T11" t="n">
-        <v>12.20153389887125</v>
+        <v>12.20153389887126</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2229863419553854</v>
+        <v>0.2229863419553855</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I12" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J12" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K12" t="n">
-        <v>240.8207461973047</v>
+        <v>240.8207461973048</v>
       </c>
       <c r="L12" t="n">
-        <v>323.8132123882328</v>
+        <v>323.813212388233</v>
       </c>
       <c r="M12" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745524</v>
       </c>
       <c r="N12" t="n">
-        <v>387.8759656885127</v>
+        <v>387.8759656885128</v>
       </c>
       <c r="O12" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842435</v>
       </c>
       <c r="P12" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644256</v>
       </c>
       <c r="Q12" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R12" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358604</v>
       </c>
       <c r="S12" t="n">
-        <v>27.70122117895496</v>
+        <v>27.70122117895497</v>
       </c>
       <c r="T12" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934975</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.250299955277508</v>
       </c>
       <c r="H13" t="n">
-        <v>11.11630323874003</v>
+        <v>11.11630323874004</v>
       </c>
       <c r="I13" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J13" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811982</v>
       </c>
       <c r="K13" t="n">
         <v>145.2621220767868</v>
@@ -31926,31 +31926,31 @@
         <v>185.8855042600761</v>
       </c>
       <c r="M13" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713643</v>
       </c>
       <c r="N13" t="n">
-        <v>191.3299922471482</v>
+        <v>191.3299922471483</v>
       </c>
       <c r="O13" t="n">
         <v>176.7242154968609</v>
       </c>
       <c r="P13" t="n">
-        <v>151.2180964091996</v>
+        <v>151.2180964091997</v>
       </c>
       <c r="Q13" t="n">
         <v>104.6955717096466</v>
       </c>
       <c r="R13" t="n">
-        <v>56.21803253456866</v>
+        <v>56.21803253456867</v>
       </c>
       <c r="S13" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T13" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003898</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32005,13 +32005,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M14" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N14" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O14" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P14" t="n">
         <v>400.8214338263987</v>
@@ -32023,7 +32023,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S14" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T14" t="n">
         <v>12.20153389887125</v>
@@ -32072,43 +32072,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I15" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J15" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K15" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L15" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M15" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N15" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O15" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P15" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q15" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R15" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S15" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T15" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I16" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J16" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K16" t="n">
         <v>145.2621220767868</v>
@@ -32181,13 +32181,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S16" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T16" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32242,13 +32242,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M17" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N17" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O17" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P17" t="n">
         <v>400.8214338263987</v>
@@ -32260,7 +32260,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S17" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T17" t="n">
         <v>12.20153389887125</v>
@@ -32309,43 +32309,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I18" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J18" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K18" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L18" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M18" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N18" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O18" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P18" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q18" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R18" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S18" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T18" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I19" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J19" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K19" t="n">
         <v>145.2621220767868</v>
@@ -32418,13 +32418,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S19" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T19" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,13 +32479,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M20" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N20" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O20" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P20" t="n">
         <v>400.8214338263987</v>
@@ -32497,7 +32497,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S20" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T20" t="n">
         <v>12.20153389887125</v>
@@ -32546,43 +32546,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I21" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J21" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K21" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L21" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M21" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N21" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O21" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P21" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q21" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R21" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S21" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T21" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I22" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J22" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K22" t="n">
         <v>145.2621220767868</v>
@@ -32655,13 +32655,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S22" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T22" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32716,13 +32716,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M23" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N23" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O23" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P23" t="n">
         <v>400.8214338263987</v>
@@ -32734,7 +32734,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S23" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T23" t="n">
         <v>12.20153389887125</v>
@@ -32783,43 +32783,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I24" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J24" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K24" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L24" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M24" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N24" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O24" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P24" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q24" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R24" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S24" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T24" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I25" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J25" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K25" t="n">
         <v>145.2621220767868</v>
@@ -32892,13 +32892,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S25" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T25" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32953,13 +32953,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M26" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N26" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O26" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P26" t="n">
         <v>400.8214338263987</v>
@@ -32971,7 +32971,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S26" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T26" t="n">
         <v>12.20153389887125</v>
@@ -33020,43 +33020,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I27" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J27" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K27" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L27" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M27" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N27" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O27" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P27" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q27" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R27" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S27" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T27" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I28" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J28" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K28" t="n">
         <v>145.2621220767868</v>
@@ -33129,13 +33129,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S28" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T28" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33190,13 +33190,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M29" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N29" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O29" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P29" t="n">
         <v>400.8214338263987</v>
@@ -33208,7 +33208,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S29" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T29" t="n">
         <v>12.20153389887125</v>
@@ -33257,43 +33257,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I30" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J30" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K30" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L30" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M30" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N30" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O30" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P30" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q30" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R30" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S30" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T30" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I31" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J31" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K31" t="n">
         <v>145.2621220767868</v>
@@ -33366,13 +33366,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S31" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T31" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33427,13 +33427,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M32" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N32" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O32" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P32" t="n">
         <v>400.8214338263987</v>
@@ -33445,7 +33445,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S32" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T32" t="n">
         <v>12.20153389887125</v>
@@ -33494,43 +33494,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I33" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J33" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K33" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L33" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M33" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N33" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O33" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P33" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q33" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R33" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S33" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T33" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I34" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J34" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K34" t="n">
         <v>145.2621220767868</v>
@@ -33603,13 +33603,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S34" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T34" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33664,13 +33664,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M35" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N35" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O35" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P35" t="n">
         <v>400.8214338263987</v>
@@ -33682,7 +33682,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S35" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T35" t="n">
         <v>12.20153389887125</v>
@@ -33731,43 +33731,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I36" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J36" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K36" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L36" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M36" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N36" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O36" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P36" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q36" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R36" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S36" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T36" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I37" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J37" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K37" t="n">
         <v>145.2621220767868</v>
@@ -33840,13 +33840,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S37" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T37" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33901,13 +33901,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M38" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N38" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O38" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P38" t="n">
         <v>400.8214338263987</v>
@@ -33919,7 +33919,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S38" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T38" t="n">
         <v>12.20153389887125</v>
@@ -33968,43 +33968,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I39" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J39" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K39" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L39" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M39" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N39" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O39" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P39" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q39" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R39" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S39" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T39" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I40" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J40" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K40" t="n">
         <v>145.2621220767868</v>
@@ -34077,13 +34077,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S40" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T40" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34138,13 +34138,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M41" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N41" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O41" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P41" t="n">
         <v>400.8214338263987</v>
@@ -34156,7 +34156,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S41" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T41" t="n">
         <v>12.20153389887125</v>
@@ -34205,43 +34205,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I42" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J42" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K42" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L42" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M42" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N42" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O42" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P42" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q42" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R42" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S42" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T42" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I43" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J43" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K43" t="n">
         <v>145.2621220767868</v>
@@ -34314,13 +34314,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S43" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T43" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34375,13 +34375,13 @@
         <v>439.8614644765565</v>
       </c>
       <c r="M44" t="n">
-        <v>489.43063146092</v>
+        <v>489.4306314609201</v>
       </c>
       <c r="N44" t="n">
-        <v>497.3501307619293</v>
+        <v>497.3501307619294</v>
       </c>
       <c r="O44" t="n">
-        <v>469.6336252891934</v>
+        <v>469.6336252891936</v>
       </c>
       <c r="P44" t="n">
         <v>400.8214338263987</v>
@@ -34393,7 +34393,7 @@
         <v>175.0895725356874</v>
       </c>
       <c r="S44" t="n">
-        <v>63.51626584135438</v>
+        <v>63.5162658413544</v>
       </c>
       <c r="T44" t="n">
         <v>12.20153389887125</v>
@@ -34442,43 +34442,43 @@
         <v>14.40332680898675</v>
       </c>
       <c r="I45" t="n">
-        <v>51.34700974139235</v>
+        <v>51.34700974139236</v>
       </c>
       <c r="J45" t="n">
-        <v>140.9001193425901</v>
+        <v>140.9001193425902</v>
       </c>
       <c r="K45" t="n">
         <v>240.8207461973047</v>
       </c>
       <c r="L45" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882329</v>
       </c>
       <c r="M45" t="n">
-        <v>377.8747455745522</v>
+        <v>377.8747455745523</v>
       </c>
       <c r="N45" t="n">
         <v>387.8759656885127</v>
       </c>
       <c r="O45" t="n">
-        <v>354.8307308842433</v>
+        <v>354.8307308842434</v>
       </c>
       <c r="P45" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644255</v>
       </c>
       <c r="Q45" t="n">
         <v>190.3698562437558</v>
       </c>
       <c r="R45" t="n">
-        <v>92.59468406358602</v>
+        <v>92.59468406358603</v>
       </c>
       <c r="S45" t="n">
         <v>27.70122117895496</v>
       </c>
       <c r="T45" t="n">
-        <v>6.011197700934973</v>
+        <v>6.011197700934974</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09811530523832936</v>
+        <v>0.09811530523832937</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I46" t="n">
-        <v>37.59992956416361</v>
+        <v>37.59992956416362</v>
       </c>
       <c r="J46" t="n">
-        <v>88.3962068381198</v>
+        <v>88.39620683811981</v>
       </c>
       <c r="K46" t="n">
         <v>145.2621220767868</v>
@@ -34551,13 +34551,13 @@
         <v>56.21803253456866</v>
       </c>
       <c r="S46" t="n">
-        <v>21.78931831151801</v>
+        <v>21.78931831151802</v>
       </c>
       <c r="T46" t="n">
-        <v>5.342190718003896</v>
+        <v>5.342190718003897</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06819817937877323</v>
+        <v>0.06819817937877325</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.5251834800126</v>
+        <v>55.52518348001269</v>
       </c>
       <c r="K11" t="n">
-        <v>134.4688851488617</v>
+        <v>134.4688851488618</v>
       </c>
       <c r="L11" t="n">
-        <v>204.0950495065692</v>
+        <v>204.0950495065694</v>
       </c>
       <c r="M11" t="n">
-        <v>259.0843982336473</v>
+        <v>259.0843982336474</v>
       </c>
       <c r="N11" t="n">
-        <v>267.9370671653384</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O11" t="n">
-        <v>239.5354138675067</v>
+        <v>239.5354138675069</v>
       </c>
       <c r="P11" t="n">
-        <v>169.5884380711291</v>
+        <v>169.5884380711292</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.69451431098358</v>
+        <v>78.69451431098369</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K12" t="n">
-        <v>102.9793072229457</v>
+        <v>102.9793072229458</v>
       </c>
       <c r="L12" t="n">
-        <v>185.2588326083587</v>
+        <v>185.2588326083588</v>
       </c>
       <c r="M12" t="n">
-        <v>235.7407116525339</v>
+        <v>310.5719231836046</v>
       </c>
       <c r="N12" t="n">
-        <v>256.5342536051794</v>
+        <v>256.5342536051795</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2344864397989</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P12" t="n">
-        <v>351.7307834215747</v>
+        <v>150.8085365500953</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.38808215773426</v>
+        <v>50.38808215773432</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>98.62902260750349</v>
       </c>
       <c r="K13" t="n">
-        <v>148.8936581890165</v>
+        <v>122.992630250904</v>
       </c>
       <c r="L13" t="n">
-        <v>213.4755295203922</v>
+        <v>213.4755295203923</v>
       </c>
       <c r="M13" t="n">
-        <v>235.5740781332048</v>
+        <v>266.4380793498705</v>
       </c>
       <c r="N13" t="n">
-        <v>235.4621646263768</v>
+        <v>235.4621646263769</v>
       </c>
       <c r="O13" t="n">
-        <v>304.901339296957</v>
+        <v>304.9013392969571</v>
       </c>
       <c r="P13" t="n">
         <v>148.4966556740931</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.1255243440086</v>
+        <v>18.53352845795224</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>173.2024406471475</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K14" t="n">
-        <v>134.4688851488617</v>
+        <v>174.8103192863411</v>
       </c>
       <c r="L14" t="n">
-        <v>204.0950495065692</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M14" t="n">
         <v>259.0843982336473</v>
       </c>
       <c r="N14" t="n">
-        <v>267.9370671653384</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O14" t="n">
-        <v>543.611196669832</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P14" t="n">
         <v>491.3871462426118</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.69451431098358</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K15" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L15" t="n">
-        <v>185.2588326083587</v>
+        <v>529.099267531942</v>
       </c>
       <c r="M15" t="n">
-        <v>543.611196669832</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N15" t="n">
-        <v>543.611196669832</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O15" t="n">
-        <v>351.6837656344209</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P15" t="n">
-        <v>150.8085365500952</v>
+        <v>150.8085365500953</v>
       </c>
       <c r="Q15" t="n">
-        <v>260.4653698935833</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>98.62902260750347</v>
       </c>
       <c r="K16" t="n">
         <v>122.9926302509039</v>
       </c>
       <c r="L16" t="n">
-        <v>317.0675254064486</v>
+        <v>213.4755295203922</v>
       </c>
       <c r="M16" t="n">
-        <v>235.5740781332048</v>
+        <v>339.1660740192613</v>
       </c>
       <c r="N16" t="n">
-        <v>261.3631925644896</v>
+        <v>235.4621646263768</v>
       </c>
       <c r="O16" t="n">
         <v>201.3093434109006</v>
       </c>
       <c r="P16" t="n">
-        <v>148.4966556740931</v>
+        <v>179.3606568907583</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.1255243440086</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.5251834800126</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K17" t="n">
-        <v>134.4688851488617</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L17" t="n">
-        <v>204.0950495065692</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M17" t="n">
-        <v>543.6111966698318</v>
+        <v>259.0843982336473</v>
       </c>
       <c r="N17" t="n">
-        <v>543.6111966698318</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O17" t="n">
-        <v>239.5354138675067</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P17" t="n">
-        <v>169.5884380711291</v>
+        <v>207.5831678089263</v>
       </c>
       <c r="Q17" t="n">
-        <v>262.0453345112477</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>367.4445442355243</v>
       </c>
       <c r="L18" t="n">
-        <v>185.2588326083587</v>
+        <v>529.099267531942</v>
       </c>
       <c r="M18" t="n">
-        <v>292.5042035114659</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N18" t="n">
-        <v>543.6111966698318</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O18" t="n">
-        <v>212.2344864397989</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P18" t="n">
-        <v>150.8085365500952</v>
+        <v>150.8085365500953</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.4653698935833</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.5335284579522</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.5251834800126</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K20" t="n">
-        <v>458.6142977200265</v>
+        <v>379.6277807208661</v>
       </c>
       <c r="L20" t="n">
-        <v>543.6111966698318</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M20" t="n">
         <v>259.0843982336473</v>
       </c>
       <c r="N20" t="n">
-        <v>322.6068009773153</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O20" t="n">
-        <v>239.5354138675067</v>
+        <v>543.6111966698315</v>
       </c>
       <c r="P20" t="n">
-        <v>169.5884380711291</v>
+        <v>169.5884380711292</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.69451431098358</v>
+        <v>78.69451431098364</v>
       </c>
       <c r="R20" t="n">
-        <v>25.22045459453773</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K21" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L21" t="n">
-        <v>385.1881389856857</v>
+        <v>210.6364988920049</v>
       </c>
       <c r="M21" t="n">
         <v>235.7407116525339</v>
       </c>
       <c r="N21" t="n">
-        <v>543.6111966698318</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O21" t="n">
-        <v>543.6111966698318</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P21" t="n">
-        <v>150.8085365500952</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.38808215773426</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.5335284579522</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.5251834800126</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K23" t="n">
         <v>458.6142977200265</v>
       </c>
       <c r="L23" t="n">
-        <v>549.4256113965084</v>
+        <v>239.8920577089938</v>
       </c>
       <c r="M23" t="n">
         <v>259.0843982336473</v>
       </c>
       <c r="N23" t="n">
-        <v>267.9370671653384</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O23" t="n">
-        <v>336.6339206065089</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P23" t="n">
-        <v>169.5884380711291</v>
+        <v>169.5884380711292</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.69451431098358</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K24" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L24" t="n">
-        <v>227.7165345047031</v>
+        <v>185.2588326083587</v>
       </c>
       <c r="M24" t="n">
-        <v>549.4256113965084</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N24" t="n">
-        <v>549.4256113965084</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O24" t="n">
-        <v>212.2344864397989</v>
+        <v>260.6348857826101</v>
       </c>
       <c r="P24" t="n">
         <v>469.2713051900324</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.38808215773426</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.5335284579522</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>68.43264078265996</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K26" t="n">
-        <v>134.4688851488617</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L26" t="n">
-        <v>621.7562640570197</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M26" t="n">
         <v>708.5979317264798</v>
       </c>
       <c r="N26" t="n">
-        <v>705.2839915773225</v>
+        <v>705.2839915773227</v>
       </c>
       <c r="O26" t="n">
-        <v>620.335595130252</v>
+        <v>532.4417846455723</v>
       </c>
       <c r="P26" t="n">
         <v>491.3871462426118</v>
@@ -36616,7 +36616,7 @@
         <v>291.0095049708883</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K27" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L27" t="n">
-        <v>218.311860324095</v>
+        <v>244.2629696888745</v>
       </c>
       <c r="M27" t="n">
-        <v>701.4457754025339</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N27" t="n">
-        <v>735.8766279487329</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O27" t="n">
         <v>606.0968057165285</v>
       </c>
       <c r="P27" t="n">
-        <v>150.8085365500952</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.38808215773426</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>74.34572324611084</v>
       </c>
       <c r="K28" t="n">
-        <v>202.3013267755677</v>
+        <v>202.3013267755678</v>
       </c>
       <c r="L28" t="n">
-        <v>292.784226045056</v>
+        <v>292.7842260450558</v>
       </c>
       <c r="M28" t="n">
-        <v>314.8827746578686</v>
+        <v>314.8827746578687</v>
       </c>
       <c r="N28" t="n">
         <v>314.7708611510406</v>
@@ -36768,10 +36768,10 @@
         <v>280.6180399355644</v>
       </c>
       <c r="P28" t="n">
-        <v>227.8053521987562</v>
+        <v>227.8053521987569</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.84222498261602</v>
+        <v>97.84222498261603</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,13 +36841,13 @@
         <v>708.5979317264798</v>
       </c>
       <c r="N29" t="n">
-        <v>605.7496023994737</v>
+        <v>705.2839915773227</v>
       </c>
       <c r="O29" t="n">
-        <v>239.5354138675067</v>
+        <v>461.7997328611416</v>
       </c>
       <c r="P29" t="n">
-        <v>491.3871462426118</v>
+        <v>169.5884380711292</v>
       </c>
       <c r="Q29" t="n">
         <v>291.0095049708883</v>
@@ -36911,10 +36911,10 @@
         <v>140.1535280163323</v>
       </c>
       <c r="K30" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L30" t="n">
-        <v>508.7282067014533</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M30" t="n">
         <v>235.7407116525339</v>
@@ -36923,13 +36923,13 @@
         <v>256.5342536051794</v>
       </c>
       <c r="O30" t="n">
-        <v>606.0968057165285</v>
+        <v>294.2605974935851</v>
       </c>
       <c r="P30" t="n">
         <v>469.2713051900324</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.4653698935833</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.34572324611085</v>
+        <v>74.34572324611084</v>
       </c>
       <c r="K31" t="n">
         <v>202.3013267755678</v>
@@ -37008,7 +37008,7 @@
         <v>227.8053521987569</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.84222498261603</v>
+        <v>97.84222498261589</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>224.6217986520864</v>
       </c>
       <c r="K32" t="n">
-        <v>458.6142977200265</v>
+        <v>134.4688851488618</v>
       </c>
       <c r="L32" t="n">
         <v>621.7562640570197</v>
       </c>
       <c r="M32" t="n">
-        <v>708.5979317264798</v>
+        <v>527.1883192625139</v>
       </c>
       <c r="N32" t="n">
-        <v>412.0439572020954</v>
+        <v>705.2839915773227</v>
       </c>
       <c r="O32" t="n">
-        <v>620.335595130252</v>
+        <v>620.3355951302522</v>
       </c>
       <c r="P32" t="n">
         <v>491.3871462426118</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.69451431098358</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R32" t="n">
-        <v>25.22045459453773</v>
+        <v>25.22045459453776</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K33" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L33" t="n">
-        <v>185.2588326083587</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M33" t="n">
-        <v>701.4457754025339</v>
+        <v>235.7407116525339</v>
       </c>
       <c r="N33" t="n">
-        <v>558.8523679286202</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O33" t="n">
-        <v>606.0968057165285</v>
+        <v>294.2605974935851</v>
       </c>
       <c r="P33" t="n">
-        <v>150.8085365500952</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.4653698935833</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.34572324610804</v>
+        <v>74.34572324611082</v>
       </c>
       <c r="K34" t="n">
-        <v>202.3013267755678</v>
+        <v>202.3013267755677</v>
       </c>
       <c r="L34" t="n">
-        <v>292.7842260450561</v>
+        <v>292.784226045056</v>
       </c>
       <c r="M34" t="n">
-        <v>314.8827746578687</v>
+        <v>314.8827746578686</v>
       </c>
       <c r="N34" t="n">
-        <v>314.7708611510407</v>
+        <v>314.7708611510406</v>
       </c>
       <c r="O34" t="n">
-        <v>280.6180399355645</v>
+        <v>280.6180399355644</v>
       </c>
       <c r="P34" t="n">
-        <v>227.805352198757</v>
+        <v>227.8053521987569</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.84222498261612</v>
+        <v>97.84222498261602</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>224.6217986520864</v>
       </c>
       <c r="K35" t="n">
-        <v>422.1245714375228</v>
+        <v>134.4688851488618</v>
       </c>
       <c r="L35" t="n">
-        <v>204.0950495065692</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M35" t="n">
-        <v>651.5739268159701</v>
+        <v>651.5739268159704</v>
       </c>
       <c r="N35" t="n">
-        <v>267.9370671653384</v>
+        <v>651.5739268159704</v>
       </c>
       <c r="O35" t="n">
-        <v>239.5354138675067</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P35" t="n">
-        <v>491.3871462426118</v>
+        <v>183.0909822207366</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.69451431098358</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K36" t="n">
-        <v>102.9793072229457</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L36" t="n">
-        <v>185.2588326083587</v>
+        <v>556.0991779118178</v>
       </c>
       <c r="M36" t="n">
-        <v>651.5739268159701</v>
+        <v>317.7668227063203</v>
       </c>
       <c r="N36" t="n">
-        <v>651.5739268159701</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O36" t="n">
-        <v>244.784326775805</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P36" t="n">
         <v>469.2713051900324</v>
       </c>
       <c r="Q36" t="n">
-        <v>260.4653698935833</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.5335284579522</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>224.6217986520864</v>
       </c>
       <c r="K38" t="n">
-        <v>134.4688851488617</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L38" t="n">
-        <v>584.8666676439622</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M38" t="n">
         <v>259.0843982336473</v>
       </c>
       <c r="N38" t="n">
-        <v>651.5739268159704</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O38" t="n">
-        <v>239.5354138675067</v>
+        <v>383.220225507421</v>
       </c>
       <c r="P38" t="n">
-        <v>169.5884380711291</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q38" t="n">
         <v>291.0095049708883</v>
       </c>
       <c r="R38" t="n">
-        <v>25.22045459453773</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>556.0991779118178</v>
       </c>
       <c r="M39" t="n">
-        <v>235.7407116525339</v>
+        <v>317.7668227063203</v>
       </c>
       <c r="N39" t="n">
-        <v>473.2381017580227</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O39" t="n">
-        <v>606.0968057165285</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P39" t="n">
-        <v>150.8085365500952</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.38808215773426</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.5335284579522</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>106.3056177098755</v>
+        <v>224.6217986520864</v>
       </c>
       <c r="K41" t="n">
-        <v>134.4688851488617</v>
+        <v>458.6142977200265</v>
       </c>
       <c r="L41" t="n">
-        <v>621.7562640570197</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M41" t="n">
         <v>259.0843982336473</v>
       </c>
       <c r="N41" t="n">
-        <v>267.9370671653384</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O41" t="n">
-        <v>620.335595130252</v>
+        <v>383.2202255074214</v>
       </c>
       <c r="P41" t="n">
         <v>491.3871462426118</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.69451431098358</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K42" t="n">
         <v>367.4445442355243</v>
@@ -37865,19 +37865,19 @@
         <v>556.0991779118178</v>
       </c>
       <c r="M42" t="n">
-        <v>258.8954725717884</v>
+        <v>317.7668227063203</v>
       </c>
       <c r="N42" t="n">
-        <v>651.5739268159704</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O42" t="n">
-        <v>212.2344864397989</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P42" t="n">
         <v>469.2713051900324</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.38808215773426</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.5335284579522</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>224.6217986520864</v>
       </c>
       <c r="K44" t="n">
-        <v>134.4688851488617</v>
+        <v>209.8095807776181</v>
       </c>
       <c r="L44" t="n">
-        <v>204.0950495065692</v>
+        <v>204.0950495065693</v>
       </c>
       <c r="M44" t="n">
-        <v>259.0843982336473</v>
+        <v>651.5739268159704</v>
       </c>
       <c r="N44" t="n">
-        <v>651.5739268159701</v>
+        <v>267.9370671653385</v>
       </c>
       <c r="O44" t="n">
-        <v>620.335595130252</v>
+        <v>239.5354138675068</v>
       </c>
       <c r="P44" t="n">
-        <v>407.0953202002187</v>
+        <v>491.3871462426118</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.69451431098358</v>
+        <v>291.0095049708883</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.06249267592344</v>
+        <v>140.1535280163323</v>
       </c>
       <c r="K45" t="n">
-        <v>315.1997545179856</v>
+        <v>367.4445442355243</v>
       </c>
       <c r="L45" t="n">
         <v>556.0991779118178</v>
       </c>
       <c r="M45" t="n">
-        <v>235.7407116525339</v>
+        <v>317.7668227063212</v>
       </c>
       <c r="N45" t="n">
-        <v>651.5739268159701</v>
+        <v>256.5342536051794</v>
       </c>
       <c r="O45" t="n">
-        <v>606.0968057165285</v>
+        <v>212.234486439799</v>
       </c>
       <c r="P45" t="n">
-        <v>150.8085365500952</v>
+        <v>469.2713051900324</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.38808215773426</v>
+        <v>260.4653698935834</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>148.4966556740931</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.5335284579522</v>
+        <v>18.53352845795223</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
